--- a/summaryFrame.xlsx
+++ b/summaryFrame.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Y1_1</t>
+          <t>2020_1</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -504,7 +504,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Y1_2</t>
+          <t>2020_2</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -532,7 +532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Y1_3</t>
+          <t>2020_3</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -560,7 +560,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Y1_4</t>
+          <t>2020_4</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -588,7 +588,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Y1_5</t>
+          <t>2020_5</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -616,7 +616,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Y1_6</t>
+          <t>2020_6</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -646,7 +646,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Y1_7</t>
+          <t>2020_7</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -676,7 +676,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Y1_8</t>
+          <t>2020_8</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -706,7 +706,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Y1_9</t>
+          <t>2020_9</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Y1_10</t>
+          <t>2020_10</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -756,10 +756,8 @@
       <c r="G11" t="n">
         <v>0.1003029380720502</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -768,7 +766,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Y1_11</t>
+          <t>2020_11</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -788,10 +786,8 @@
       <c r="G12" t="n">
         <v>0.06655132593534674</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -800,7 +796,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Y1_12</t>
+          <t>2020_12</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -820,10 +816,8 @@
       <c r="G13" t="n">
         <v>0.03250137842916226</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -832,7 +826,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Y1_13</t>
+          <t>2020_13</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -860,7 +854,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Y1_14</t>
+          <t>2020_14</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -890,7 +884,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Y1_15</t>
+          <t>2020_15</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -920,7 +914,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Y1_16</t>
+          <t>2020_16</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -950,7 +944,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Y1_17</t>
+          <t>2020_17</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -980,7 +974,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Y1_18</t>
+          <t>2020_18</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1000,10 +994,8 @@
       <c r="G19" t="n">
         <v>0.07773753564207328</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1012,7 +1004,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Y1_19</t>
+          <t>2020_19</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1032,10 +1024,8 @@
       <c r="G20" t="n">
         <v>0.0501242191949469</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1044,7 +1034,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Y1_20</t>
+          <t>2020_20</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1064,10 +1054,8 @@
       <c r="G21" t="n">
         <v>0.02431060411729764</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1076,7 +1064,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Y1_21</t>
+          <t>2020_21</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1104,7 +1092,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Y1_22</t>
+          <t>2020_22</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1134,7 +1122,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Y1_23</t>
+          <t>2020_23</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1164,7 +1152,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Y1_24</t>
+          <t>2020_24</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1194,7 +1182,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Y1_25</t>
+          <t>2020_25</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1224,7 +1212,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Y1_26</t>
+          <t>2020_26</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1254,7 +1242,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Y1_27</t>
+          <t>2020_27</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1284,7 +1272,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Y1_28</t>
+          <t>2020_28</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1304,10 +1292,8 @@
       <c r="G29" t="n">
         <v>0.144559753400299</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1316,7 +1302,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Y1_29</t>
+          <t>2020_29</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1336,10 +1322,8 @@
       <c r="G30" t="n">
         <v>0.0918009811071815</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1348,7 +1332,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Y1_30</t>
+          <t>2020_30</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1378,7 +1362,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Y1_31</t>
+          <t>2020_31</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1408,7 +1392,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Y1_32</t>
+          <t>2020_32</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1438,7 +1422,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Y1_33</t>
+          <t>2020_33</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1468,7 +1452,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Y1_34</t>
+          <t>2020_34</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1488,10 +1472,8 @@
       <c r="G35" t="n">
         <v>0.1004413636346295</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1500,7 +1482,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Y1_35</t>
+          <t>2020_35</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1520,10 +1502,8 @@
       <c r="G36" t="n">
         <v>0.0666466222227028</v>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1532,7 +1512,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Y1_36</t>
+          <t>2020_36</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1552,10 +1532,8 @@
       <c r="G37" t="n">
         <v>0.03254961802339342</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1564,7 +1542,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Y1_37</t>
+          <t>2020_37</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1592,7 +1570,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Y1_38</t>
+          <t>2020_38</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1622,7 +1600,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Y1_39</t>
+          <t>2020_39</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1652,7 +1630,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Y1_40</t>
+          <t>2020_40</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1682,7 +1660,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Y1_41</t>
+          <t>2020_41</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1712,7 +1690,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Y1_42</t>
+          <t>2020_42</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1732,10 +1710,8 @@
       <c r="G43" t="n">
         <v>0.08400787436820399</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1744,7 +1720,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Y1_43</t>
+          <t>2020_43</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1764,10 +1740,8 @@
       <c r="G44" t="n">
         <v>0.06416429281940138</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1776,7 +1750,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Y1_44</t>
+          <t>2020_44</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1796,10 +1770,8 @@
       <c r="G45" t="n">
         <v>0.03244096535198271</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1808,7 +1780,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Y1_45</t>
+          <t>2020_45</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1836,7 +1808,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Y1_46</t>
+          <t>2020_46</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1866,7 +1838,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Y1_47</t>
+          <t>2020_47</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1896,7 +1868,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Y1_48</t>
+          <t>2020_48</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1926,7 +1898,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Y2_1</t>
+          <t>2021_1</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1956,7 +1928,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Y2_2</t>
+          <t>2021_2</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1986,7 +1958,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Y2_3</t>
+          <t>2021_3</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2016,7 +1988,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Y2_4</t>
+          <t>2021_4</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2046,7 +2018,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Y2_5</t>
+          <t>2021_5</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2076,7 +2048,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Y2_6</t>
+          <t>2021_6</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2106,7 +2078,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Y2_7</t>
+          <t>2021_7</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2136,7 +2108,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Y2_8</t>
+          <t>2021_8</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2166,7 +2138,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Y2_9</t>
+          <t>2021_9</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2196,7 +2168,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Y2_10</t>
+          <t>2021_10</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2216,10 +2188,8 @@
       <c r="G59" t="n">
         <v>0.07770528201974378</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2228,7 +2198,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Y2_11</t>
+          <t>2021_11</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2248,10 +2218,8 @@
       <c r="G60" t="n">
         <v>0.05010369519394205</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2260,7 +2228,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Y2_12</t>
+          <t>2021_12</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2280,10 +2248,8 @@
       <c r="G61" t="n">
         <v>0.02430038301333078</v>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2292,7 +2258,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Y2_13</t>
+          <t>2021_13</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2320,7 +2286,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Y2_14</t>
+          <t>2021_14</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2350,7 +2316,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Y2_15</t>
+          <t>2021_15</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2380,7 +2346,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Y2_16</t>
+          <t>2021_16</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -2410,7 +2376,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Y2_17</t>
+          <t>2021_17</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -2440,7 +2406,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Y2_18</t>
+          <t>2021_18</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -2460,10 +2426,8 @@
       <c r="G67" t="n">
         <v>0.1003670242559912</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2472,7 +2436,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Y2_19</t>
+          <t>2021_19</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2492,10 +2456,8 @@
       <c r="G68" t="n">
         <v>0.06659544354975346</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2504,7 +2466,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Y2_20</t>
+          <t>2021_20</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2524,10 +2486,8 @@
       <c r="G69" t="n">
         <v>0.0325237104231475</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2536,7 +2496,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Y2_21</t>
+          <t>2021_21</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -2564,7 +2524,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Y2_22</t>
+          <t>2021_22</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -2594,7 +2554,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Y2_23</t>
+          <t>2021_23</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -2624,7 +2584,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Y2_24</t>
+          <t>2021_24</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -2654,7 +2614,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Y2_25</t>
+          <t>2021_25</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -2684,7 +2644,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Y2_26</t>
+          <t>2021_26</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -2704,10 +2664,8 @@
       <c r="G75" t="n">
         <v>0.1003877150638314</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2716,7 +2674,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Y2_27</t>
+          <t>2021_27</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -2736,10 +2694,8 @@
       <c r="G76" t="n">
         <v>0.06660968777480153</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2748,7 +2704,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Y2_28</t>
+          <t>2021_28</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -2778,7 +2734,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Y2_29</t>
+          <t>2021_29</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2808,7 +2764,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Y2_30</t>
+          <t>2021_30</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -2838,7 +2794,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Y2_31</t>
+          <t>2021_31</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2868,7 +2824,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Y2_32</t>
+          <t>2021_32</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -2898,7 +2854,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Y2_33</t>
+          <t>2021_33</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2928,7 +2884,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Y2_34</t>
+          <t>2021_34</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2948,10 +2904,8 @@
       <c r="G83" t="n">
         <v>0.1051550937077204</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2960,7 +2914,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Y2_35</t>
+          <t>2021_35</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2980,10 +2934,8 @@
       <c r="G84" t="n">
         <v>0.0641752949118992</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2992,7 +2944,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Y2_36</t>
+          <t>2021_36</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -3012,10 +2964,8 @@
       <c r="G85" t="n">
         <v>0.03244705173577779</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3024,7 +2974,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Y2_37</t>
+          <t>2021_37</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3052,7 +3002,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Y2_38</t>
+          <t>2021_38</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -3082,7 +3032,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Y2_39</t>
+          <t>2021_39</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -3112,7 +3062,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Y2_40</t>
+          <t>2021_40</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -3142,7 +3092,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Y2_41</t>
+          <t>2021_41</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -3172,7 +3122,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Y2_42</t>
+          <t>2021_42</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -3192,10 +3142,8 @@
       <c r="G91" t="n">
         <v>0.1004237597362826</v>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3204,7 +3152,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Y2_43</t>
+          <t>2021_43</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -3224,10 +3172,8 @@
       <c r="G92" t="n">
         <v>0.06663450262618084</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3236,7 +3182,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Y2_44</t>
+          <t>2021_44</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -3256,10 +3202,8 @@
       <c r="G93" t="n">
         <v>0.03254348272589212</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3268,7 +3212,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Y2_45</t>
+          <t>2021_45</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -3296,7 +3240,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Y2_46</t>
+          <t>2021_46</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -3326,7 +3270,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Y2_47</t>
+          <t>2021_47</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -3356,7 +3300,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Y2_48</t>
+          <t>2021_48</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -3386,7 +3330,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Y3_1</t>
+          <t>2022_1</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -3416,7 +3360,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Y3_2</t>
+          <t>2022_2</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -3436,10 +3380,8 @@
       <c r="G99" t="n">
         <v>0.0777424212416223</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H99" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3448,7 +3390,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Y3_3</t>
+          <t>2022_3</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -3468,10 +3410,8 @@
       <c r="G100" t="n">
         <v>0.05012732803712636</v>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3480,7 +3420,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Y3_4</t>
+          <t>2022_4</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -3500,10 +3440,8 @@
       <c r="G101" t="n">
         <v>0.02431215236322074</v>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H101" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -3512,7 +3450,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Y3_5</t>
+          <t>2022_5</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -3540,7 +3478,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Y3_6</t>
+          <t>2022_6</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -3570,7 +3508,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Y3_7</t>
+          <t>2022_7</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -3600,7 +3538,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Y3_8</t>
+          <t>2022_8</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -3630,7 +3568,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Y3_9</t>
+          <t>2022_9</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -3660,7 +3598,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Y3_10</t>
+          <t>2022_10</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -3680,10 +3618,8 @@
       <c r="G107" t="n">
         <v>0.1733384996963195</v>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H107" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -3692,7 +3628,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Y3_11</t>
+          <t>2022_11</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -3712,10 +3648,8 @@
       <c r="G108" t="n">
         <v>0.1296786812189736</v>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H108" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -3724,7 +3658,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Y3_12</t>
+          <t>2022_12</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -3744,10 +3678,8 @@
       <c r="G109" t="n">
         <v>0.07223125345513458</v>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H109" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -3756,7 +3688,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Y3_13</t>
+          <t>2022_13</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -3784,7 +3716,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Y3_14</t>
+          <t>2022_14</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -3814,7 +3746,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Y3_15</t>
+          <t>2022_15</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -3844,7 +3776,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Y3_16</t>
+          <t>2022_16</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -3874,7 +3806,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Y3_17</t>
+          <t>2022_17</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -3904,7 +3836,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Y3_18</t>
+          <t>2022_18</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -3924,10 +3856,8 @@
       <c r="G115" t="n">
         <v>0.1003670242559912</v>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H115" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -3936,7 +3866,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Y3_19</t>
+          <t>2022_19</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -3956,10 +3886,8 @@
       <c r="G116" t="n">
         <v>0.06659544354975346</v>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H116" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3968,7 +3896,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Y3_20</t>
+          <t>2022_20</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -3988,10 +3916,8 @@
       <c r="G117" t="n">
         <v>0.0325237104231475</v>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H117" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -4000,7 +3926,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Y3_21</t>
+          <t>2022_21</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -4028,7 +3954,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Y3_22</t>
+          <t>2022_22</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -4058,7 +3984,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Y3_23</t>
+          <t>2022_23</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -4088,7 +4014,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Y3_24</t>
+          <t>2022_24</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -4118,7 +4044,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Y3_25</t>
+          <t>2022_25</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -4148,7 +4074,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Y3_26</t>
+          <t>2022_26</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -4168,10 +4094,8 @@
       <c r="G123" t="n">
         <v>0.0839853763852647</v>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H123" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -4180,7 +4104,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Y3_27</t>
+          <t>2022_27</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -4200,10 +4124,8 @@
       <c r="G124" t="n">
         <v>0.06414176534060709</v>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H124" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -4212,7 +4134,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Y3_28</t>
+          <t>2022_28</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -4232,10 +4154,8 @@
       <c r="G125" t="n">
         <v>0.03242850371012066</v>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H125" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -4244,7 +4164,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Y3_29</t>
+          <t>2022_29</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -4272,7 +4192,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Y3_30</t>
+          <t>2022_30</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -4302,7 +4222,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Y3_31</t>
+          <t>2022_31</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -4332,7 +4252,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Y3_32</t>
+          <t>2022_32</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -4362,7 +4282,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Y3_33</t>
+          <t>2022_33</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -4392,7 +4312,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Y3_34</t>
+          <t>2022_34</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -4422,7 +4342,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Y3_35</t>
+          <t>2022_35</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -4452,7 +4372,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Y3_36</t>
+          <t>2022_36</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -4472,10 +4392,8 @@
       <c r="G133" t="n">
         <v>0.1446332128874222</v>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H133" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -4484,7 +4402,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Y3_37</t>
+          <t>2022_37</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -4504,10 +4422,8 @@
       <c r="G134" t="n">
         <v>0.09162681059707677</v>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H134" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -4516,7 +4432,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Y3_38</t>
+          <t>2022_38</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -4546,7 +4462,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Y3_39</t>
+          <t>2022_39</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -4576,7 +4492,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Y3_40</t>
+          <t>2022_40</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -4606,7 +4522,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Y3_41</t>
+          <t>2022_41</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -4636,7 +4552,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Y3_42</t>
+          <t>2022_42</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -4656,10 +4572,8 @@
       <c r="G139" t="n">
         <v>0.07776607772423155</v>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H139" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -4668,7 +4582,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Y3_43</t>
+          <t>2022_43</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -4688,10 +4602,8 @@
       <c r="G140" t="n">
         <v>0.05014238123908044</v>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H140" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -4700,7 +4612,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Y3_44</t>
+          <t>2022_44</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -4720,10 +4632,8 @@
       <c r="G141" t="n">
         <v>0.02431964913650792</v>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H141" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -4732,7 +4642,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Y3_45</t>
+          <t>2022_45</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -4760,7 +4670,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Y3_46</t>
+          <t>2022_46</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -4788,7 +4698,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Y3_47</t>
+          <t>2022_47</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -4816,7 +4726,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Y3_48</t>
+          <t>2022_48</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -4844,7 +4754,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Y1_1</t>
+          <t>2020_1</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -4872,7 +4782,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Y1_2</t>
+          <t>2020_2</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -4900,7 +4810,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Y1_3</t>
+          <t>2020_3</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -4928,7 +4838,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Y1_4</t>
+          <t>2020_4</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -4956,7 +4866,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Y1_5</t>
+          <t>2020_5</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -4984,7 +4894,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Y1_6</t>
+          <t>2020_6</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -5012,7 +4922,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Y1_7</t>
+          <t>2020_7</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -5040,7 +4950,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Y1_8</t>
+          <t>2020_8</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -5068,7 +4978,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Y1_9</t>
+          <t>2020_9</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -5096,7 +5006,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Y1_10</t>
+          <t>2020_10</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -5124,7 +5034,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Y1_11</t>
+          <t>2020_11</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -5152,7 +5062,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Y1_12</t>
+          <t>2020_12</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -5180,7 +5090,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Y1_13</t>
+          <t>2020_13</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -5208,7 +5118,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Y1_14</t>
+          <t>2020_14</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -5236,7 +5146,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Y1_15</t>
+          <t>2020_15</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -5264,7 +5174,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Y1_16</t>
+          <t>2020_16</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -5292,7 +5202,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Y1_17</t>
+          <t>2020_17</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -5320,7 +5230,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Y1_18</t>
+          <t>2020_18</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -5350,7 +5260,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Y1_19</t>
+          <t>2020_19</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -5380,7 +5290,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Y1_20</t>
+          <t>2020_20</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -5410,7 +5320,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Y1_21</t>
+          <t>2020_21</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -5440,7 +5350,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Y1_22</t>
+          <t>2020_22</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -5460,10 +5370,8 @@
       <c r="G167" t="n">
         <v>0.2509110206568765</v>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H167" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -5472,7 +5380,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Y1_23</t>
+          <t>2020_23</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -5492,10 +5400,8 @@
       <c r="G168" t="n">
         <v>0.05482389318297983</v>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H168" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -5504,7 +5410,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Y1_24</t>
+          <t>2020_24</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -5524,10 +5430,8 @@
       <c r="G169" t="n">
         <v>0.004384643015532226</v>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H169" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -5536,7 +5440,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Y1_25</t>
+          <t>2020_25</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -5564,7 +5468,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Y1_26</t>
+          <t>2020_26</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -5592,7 +5496,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Y1_27</t>
+          <t>2020_27</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -5620,7 +5524,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Y1_28</t>
+          <t>2020_28</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -5648,7 +5552,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Y1_29</t>
+          <t>2020_29</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -5676,7 +5580,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Y1_30</t>
+          <t>2020_30</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -5704,7 +5608,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Y1_31</t>
+          <t>2020_31</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -5732,7 +5636,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Y1_32</t>
+          <t>2020_32</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -5760,7 +5664,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Y1_33</t>
+          <t>2020_33</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -5788,7 +5692,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Y1_34</t>
+          <t>2020_34</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -5816,7 +5720,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Y1_35</t>
+          <t>2020_35</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -5844,7 +5748,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Y1_36</t>
+          <t>2020_36</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -5872,7 +5776,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Y1_37</t>
+          <t>2020_37</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -5900,7 +5804,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Y1_38</t>
+          <t>2020_38</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -5930,7 +5834,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Y1_39</t>
+          <t>2020_39</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -5960,7 +5864,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Y1_40</t>
+          <t>2020_40</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -5990,7 +5894,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Y1_41</t>
+          <t>2020_41</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -6020,7 +5924,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Y1_42</t>
+          <t>2020_42</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -6040,10 +5944,8 @@
       <c r="G187" t="n">
         <v>0.2448455594779002</v>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H187" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -6052,7 +5954,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Y1_43</t>
+          <t>2020_43</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -6072,10 +5974,8 @@
       <c r="G188" t="n">
         <v>0.05590364342310219</v>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H188" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -6084,7 +5984,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Y1_44</t>
+          <t>2020_44</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -6104,10 +6004,8 @@
       <c r="G189" t="n">
         <v>0.004781788492240781</v>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H189" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -6116,7 +6014,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Y1_45</t>
+          <t>2020_45</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -6144,7 +6042,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Y1_46</t>
+          <t>2020_46</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -6172,7 +6070,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Y1_47</t>
+          <t>2020_47</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -6200,7 +6098,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Y1_48</t>
+          <t>2020_48</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -6228,7 +6126,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Y2_1</t>
+          <t>2021_1</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -6256,7 +6154,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Y2_2</t>
+          <t>2021_2</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -6284,7 +6182,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Y2_3</t>
+          <t>2021_3</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -6312,7 +6210,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Y2_4</t>
+          <t>2021_4</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -6340,7 +6238,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Y2_5</t>
+          <t>2021_5</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -6368,7 +6266,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Y2_6</t>
+          <t>2021_6</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -6396,7 +6294,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Y2_7</t>
+          <t>2021_7</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -6424,7 +6322,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Y2_8</t>
+          <t>2021_8</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -6452,7 +6350,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Y2_9</t>
+          <t>2021_9</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -6480,7 +6378,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Y2_10</t>
+          <t>2021_10</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -6510,7 +6408,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Y2_11</t>
+          <t>2021_11</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -6540,7 +6438,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Y2_12</t>
+          <t>2021_12</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -6570,7 +6468,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Y2_13</t>
+          <t>2021_13</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -6600,7 +6498,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Y2_14</t>
+          <t>2021_14</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -6620,10 +6518,8 @@
       <c r="G207" t="n">
         <v>0.2508918428546285</v>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H207" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -6632,7 +6528,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Y2_15</t>
+          <t>2021_15</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -6652,10 +6548,8 @@
       <c r="G208" t="n">
         <v>0.05481877771718634</v>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H208" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -6664,7 +6558,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Y2_16</t>
+          <t>2021_16</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -6684,10 +6578,8 @@
       <c r="G209" t="n">
         <v>0.004509052058470252</v>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H209" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -6696,7 +6588,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Y2_17</t>
+          <t>2021_17</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -6724,7 +6616,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Y2_18</t>
+          <t>2021_18</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -6752,7 +6644,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Y2_19</t>
+          <t>2021_19</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -6780,7 +6672,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Y2_20</t>
+          <t>2021_20</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -6808,7 +6700,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Y2_21</t>
+          <t>2021_21</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -6836,7 +6728,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Y2_22</t>
+          <t>2021_22</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -6864,7 +6756,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Y2_23</t>
+          <t>2021_23</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -6892,7 +6784,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Y2_24</t>
+          <t>2021_24</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -6920,7 +6812,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Y2_25</t>
+          <t>2021_25</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -6948,7 +6840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Y2_26</t>
+          <t>2021_26</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -6976,7 +6868,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Y2_27</t>
+          <t>2021_27</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -7004,7 +6896,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Y2_28</t>
+          <t>2021_28</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -7032,7 +6924,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Y2_29</t>
+          <t>2021_29</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -7060,7 +6952,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Y2_30</t>
+          <t>2021_30</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -7090,7 +6982,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Y2_31</t>
+          <t>2021_31</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -7120,7 +7012,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Y2_32</t>
+          <t>2021_32</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -7150,7 +7042,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Y2_33</t>
+          <t>2021_33</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -7180,7 +7072,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Y2_34</t>
+          <t>2021_34</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -7200,10 +7092,8 @@
       <c r="G227" t="n">
         <v>0.2410736112946726</v>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H227" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -7212,7 +7102,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Y2_35</t>
+          <t>2021_35</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -7232,10 +7122,8 @@
       <c r="G228" t="n">
         <v>0.05591322908249119</v>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H228" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -7244,7 +7132,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Y2_36</t>
+          <t>2021_36</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -7264,10 +7152,8 @@
       <c r="G229" t="n">
         <v>0.004782685623373539</v>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H229" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -7276,7 +7162,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Y2_37</t>
+          <t>2021_37</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -7304,7 +7190,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Y2_38</t>
+          <t>2021_38</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -7332,7 +7218,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Y2_39</t>
+          <t>2021_39</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -7360,7 +7246,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Y2_40</t>
+          <t>2021_40</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -7388,7 +7274,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Y2_41</t>
+          <t>2021_41</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -7416,7 +7302,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Y2_42</t>
+          <t>2021_42</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -7444,7 +7330,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Y2_43</t>
+          <t>2021_43</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -7472,7 +7358,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Y2_44</t>
+          <t>2021_44</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -7500,7 +7386,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Y2_45</t>
+          <t>2021_45</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -7528,7 +7414,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Y2_46</t>
+          <t>2021_46</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -7556,7 +7442,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Y2_47</t>
+          <t>2021_47</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -7584,7 +7470,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Y2_48</t>
+          <t>2021_48</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -7612,7 +7498,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Y3_1</t>
+          <t>2022_1</t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -7640,7 +7526,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Y3_2</t>
+          <t>2022_2</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -7670,7 +7556,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Y3_3</t>
+          <t>2022_3</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -7700,7 +7586,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Y3_4</t>
+          <t>2022_4</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -7730,7 +7616,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Y3_5</t>
+          <t>2022_5</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -7760,7 +7646,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Y3_6</t>
+          <t>2022_6</t>
         </is>
       </c>
       <c r="C247" t="n">
@@ -7780,10 +7666,8 @@
       <c r="G247" t="n">
         <v>0.2416453465075547</v>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H247" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -7792,7 +7676,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Y3_7</t>
+          <t>2022_7</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -7812,10 +7696,8 @@
       <c r="G248" t="n">
         <v>0.05207364194015016</v>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H248" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -7824,7 +7706,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Y3_8</t>
+          <t>2022_8</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -7844,10 +7726,8 @@
       <c r="G249" t="n">
         <v>0.004269108485438675</v>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H249" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -7856,7 +7736,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Y3_9</t>
+          <t>2022_9</t>
         </is>
       </c>
       <c r="C250" t="n">
@@ -7884,7 +7764,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Y3_10</t>
+          <t>2022_10</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -7912,7 +7792,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Y3_11</t>
+          <t>2022_11</t>
         </is>
       </c>
       <c r="C252" t="n">
@@ -7940,7 +7820,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Y3_12</t>
+          <t>2022_12</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -7968,7 +7848,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Y3_13</t>
+          <t>2022_13</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -7996,7 +7876,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Y3_14</t>
+          <t>2022_14</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -8024,7 +7904,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Y3_15</t>
+          <t>2022_15</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -8052,7 +7932,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Y3_16</t>
+          <t>2022_16</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -8080,7 +7960,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Y3_17</t>
+          <t>2022_17</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -8108,7 +7988,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Y3_18</t>
+          <t>2022_18</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -8136,7 +8016,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Y3_19</t>
+          <t>2022_19</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -8164,7 +8044,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Y3_20</t>
+          <t>2022_20</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -8192,7 +8072,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Y3_21</t>
+          <t>2022_21</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -8220,7 +8100,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Y3_22</t>
+          <t>2022_22</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -8250,7 +8130,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Y3_23</t>
+          <t>2022_23</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -8280,7 +8160,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Y3_24</t>
+          <t>2022_24</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -8310,7 +8190,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Y3_25</t>
+          <t>2022_25</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -8340,7 +8220,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Y3_26</t>
+          <t>2022_26</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -8360,10 +8240,8 @@
       <c r="G267" t="n">
         <v>0.2447799878721271</v>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H267" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -8372,7 +8250,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Y3_27</t>
+          <t>2022_27</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -8392,10 +8270,8 @@
       <c r="G268" t="n">
         <v>0.05588401618049743</v>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H268" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -8404,7 +8280,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Y3_28</t>
+          <t>2022_28</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -8424,10 +8300,8 @@
       <c r="G269" t="n">
         <v>0.004779951649995142</v>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H269" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -8436,7 +8310,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Y3_29</t>
+          <t>2022_29</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -8464,7 +8338,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Y3_30</t>
+          <t>2022_30</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -8492,7 +8366,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Y3_31</t>
+          <t>2022_31</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -8520,7 +8394,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Y3_32</t>
+          <t>2022_32</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -8548,7 +8422,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Y3_33</t>
+          <t>2022_33</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -8576,7 +8450,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Y3_34</t>
+          <t>2022_34</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -8604,7 +8478,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Y3_35</t>
+          <t>2022_35</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -8632,7 +8506,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Y3_36</t>
+          <t>2022_36</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -8660,7 +8534,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Y3_37</t>
+          <t>2022_37</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -8688,7 +8562,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Y3_38</t>
+          <t>2022_38</t>
         </is>
       </c>
       <c r="C279" t="n">
@@ -8716,7 +8590,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Y3_39</t>
+          <t>2022_39</t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -8744,7 +8618,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Y3_40</t>
+          <t>2022_40</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -8772,7 +8646,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Y3_41</t>
+          <t>2022_41</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -8800,7 +8674,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Y3_42</t>
+          <t>2022_42</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -8830,7 +8704,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Y3_43</t>
+          <t>2022_43</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -8860,7 +8734,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Y3_44</t>
+          <t>2022_44</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -8890,7 +8764,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Y3_45</t>
+          <t>2022_45</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -8920,7 +8794,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Y3_46</t>
+          <t>2022_46</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -8940,10 +8814,8 @@
       <c r="G287" t="n">
         <v>0.2599367217400463</v>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H287" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -8952,7 +8824,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Y3_47</t>
+          <t>2022_47</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -8972,10 +8844,8 @@
       <c r="G288" t="n">
         <v>0.05837678463661158</v>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H288" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -8984,7 +8854,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Y3_48</t>
+          <t>2022_48</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -9004,10 +8874,8 @@
       <c r="G289" t="n">
         <v>0.004885046806971959</v>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H289" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -9016,7 +8884,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Y1_1</t>
+          <t>2020_1</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -9046,7 +8914,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Y1_2</t>
+          <t>2020_2</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -9076,7 +8944,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Y1_3</t>
+          <t>2020_3</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -9106,7 +8974,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Y1_4</t>
+          <t>2020_4</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -9136,7 +9004,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Y1_5</t>
+          <t>2020_5</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -9166,7 +9034,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Y1_6</t>
+          <t>2020_6</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -9196,7 +9064,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Y1_7</t>
+          <t>2020_7</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -9226,7 +9094,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Y1_8</t>
+          <t>2020_8</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -9256,7 +9124,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Y1_9</t>
+          <t>2020_9</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -9286,7 +9154,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Y1_10</t>
+          <t>2020_10</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -9316,7 +9184,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Y1_11</t>
+          <t>2020_11</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -9346,7 +9214,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Y1_12</t>
+          <t>2020_12</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -9376,7 +9244,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Y1_13</t>
+          <t>2020_13</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -9406,7 +9274,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Y1_14</t>
+          <t>2020_14</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -9436,7 +9304,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Y1_15</t>
+          <t>2020_15</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -9466,7 +9334,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Y1_16</t>
+          <t>2020_16</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -9496,7 +9364,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Y1_17</t>
+          <t>2020_17</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -9526,7 +9394,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Y1_18</t>
+          <t>2020_18</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -9556,7 +9424,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Y1_19</t>
+          <t>2020_19</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -9586,7 +9454,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Y1_20</t>
+          <t>2020_20</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -9616,7 +9484,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Y1_21</t>
+          <t>2020_21</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -9646,7 +9514,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Y1_22</t>
+          <t>2020_22</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -9676,7 +9544,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Y1_23</t>
+          <t>2020_23</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -9706,7 +9574,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Y1_24</t>
+          <t>2020_24</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -9736,7 +9604,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Y1_25</t>
+          <t>2020_25</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -9766,7 +9634,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Y1_26</t>
+          <t>2020_26</t>
         </is>
       </c>
       <c r="C315" t="n">
@@ -9796,7 +9664,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Y1_27</t>
+          <t>2020_27</t>
         </is>
       </c>
       <c r="C316" t="n">
@@ -9826,7 +9694,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Y1_28</t>
+          <t>2020_28</t>
         </is>
       </c>
       <c r="C317" t="n">
@@ -9856,7 +9724,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Y1_29</t>
+          <t>2020_29</t>
         </is>
       </c>
       <c r="C318" t="n">
@@ -9886,7 +9754,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Y1_30</t>
+          <t>2020_30</t>
         </is>
       </c>
       <c r="C319" t="n">
@@ -9916,7 +9784,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Y1_31</t>
+          <t>2020_31</t>
         </is>
       </c>
       <c r="C320" t="n">
@@ -9946,7 +9814,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Y1_32</t>
+          <t>2020_32</t>
         </is>
       </c>
       <c r="C321" t="n">
@@ -9976,7 +9844,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Y1_33</t>
+          <t>2020_33</t>
         </is>
       </c>
       <c r="C322" t="n">
@@ -10006,7 +9874,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Y1_34</t>
+          <t>2020_34</t>
         </is>
       </c>
       <c r="C323" t="n">
@@ -10036,7 +9904,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Y1_35</t>
+          <t>2020_35</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -10066,7 +9934,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Y1_36</t>
+          <t>2020_36</t>
         </is>
       </c>
       <c r="C325" t="n">
@@ -10096,7 +9964,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Y1_37</t>
+          <t>2020_37</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -10126,7 +9994,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Y1_38</t>
+          <t>2020_38</t>
         </is>
       </c>
       <c r="C327" t="n">
@@ -10156,7 +10024,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Y1_39</t>
+          <t>2020_39</t>
         </is>
       </c>
       <c r="C328" t="n">
@@ -10186,7 +10054,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Y1_40</t>
+          <t>2020_40</t>
         </is>
       </c>
       <c r="C329" t="n">
@@ -10216,7 +10084,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Y1_41</t>
+          <t>2020_41</t>
         </is>
       </c>
       <c r="C330" t="n">
@@ -10246,7 +10114,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Y1_42</t>
+          <t>2020_42</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -10276,7 +10144,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Y1_43</t>
+          <t>2020_43</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -10306,7 +10174,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Y1_44</t>
+          <t>2020_44</t>
         </is>
       </c>
       <c r="C333" t="n">
@@ -10336,7 +10204,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Y1_45</t>
+          <t>2020_45</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -10366,7 +10234,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Y1_46</t>
+          <t>2020_46</t>
         </is>
       </c>
       <c r="C335" t="n">
@@ -10396,7 +10264,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Y1_47</t>
+          <t>2020_47</t>
         </is>
       </c>
       <c r="C336" t="n">
@@ -10426,7 +10294,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Y1_48</t>
+          <t>2020_48</t>
         </is>
       </c>
       <c r="C337" t="n">
@@ -10456,7 +10324,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Y2_1</t>
+          <t>2021_1</t>
         </is>
       </c>
       <c r="C338" t="n">
@@ -10486,7 +10354,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Y2_2</t>
+          <t>2021_2</t>
         </is>
       </c>
       <c r="C339" t="n">
@@ -10516,7 +10384,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Y2_3</t>
+          <t>2021_3</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -10546,7 +10414,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Y2_4</t>
+          <t>2021_4</t>
         </is>
       </c>
       <c r="C341" t="n">
@@ -10576,7 +10444,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Y2_5</t>
+          <t>2021_5</t>
         </is>
       </c>
       <c r="C342" t="n">
@@ -10606,7 +10474,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Y2_6</t>
+          <t>2021_6</t>
         </is>
       </c>
       <c r="C343" t="n">
@@ -10636,7 +10504,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Y2_7</t>
+          <t>2021_7</t>
         </is>
       </c>
       <c r="C344" t="n">
@@ -10666,7 +10534,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Y2_8</t>
+          <t>2021_8</t>
         </is>
       </c>
       <c r="C345" t="n">
@@ -10696,7 +10564,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Y2_9</t>
+          <t>2021_9</t>
         </is>
       </c>
       <c r="C346" t="n">
@@ -10726,7 +10594,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Y2_10</t>
+          <t>2021_10</t>
         </is>
       </c>
       <c r="C347" t="n">
@@ -10756,7 +10624,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Y2_11</t>
+          <t>2021_11</t>
         </is>
       </c>
       <c r="C348" t="n">
@@ -10786,7 +10654,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Y2_12</t>
+          <t>2021_12</t>
         </is>
       </c>
       <c r="C349" t="n">
@@ -10816,7 +10684,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Y2_13</t>
+          <t>2021_13</t>
         </is>
       </c>
       <c r="C350" t="n">
@@ -10846,7 +10714,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Y2_14</t>
+          <t>2021_14</t>
         </is>
       </c>
       <c r="C351" t="n">
@@ -10876,7 +10744,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Y2_15</t>
+          <t>2021_15</t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -10906,7 +10774,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Y2_16</t>
+          <t>2021_16</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -10936,7 +10804,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Y2_17</t>
+          <t>2021_17</t>
         </is>
       </c>
       <c r="C354" t="n">
@@ -10966,7 +10834,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Y2_18</t>
+          <t>2021_18</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -10996,7 +10864,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Y2_19</t>
+          <t>2021_19</t>
         </is>
       </c>
       <c r="C356" t="n">
@@ -11026,7 +10894,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Y2_20</t>
+          <t>2021_20</t>
         </is>
       </c>
       <c r="C357" t="n">
@@ -11056,7 +10924,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Y2_21</t>
+          <t>2021_21</t>
         </is>
       </c>
       <c r="C358" t="n">
@@ -11086,7 +10954,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Y2_22</t>
+          <t>2021_22</t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -11116,7 +10984,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Y2_23</t>
+          <t>2021_23</t>
         </is>
       </c>
       <c r="C360" t="n">
@@ -11146,7 +11014,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Y2_24</t>
+          <t>2021_24</t>
         </is>
       </c>
       <c r="C361" t="n">
@@ -11176,7 +11044,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Y2_25</t>
+          <t>2021_25</t>
         </is>
       </c>
       <c r="C362" t="n">
@@ -11206,7 +11074,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Y2_26</t>
+          <t>2021_26</t>
         </is>
       </c>
       <c r="C363" t="n">
@@ -11236,7 +11104,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Y2_27</t>
+          <t>2021_27</t>
         </is>
       </c>
       <c r="C364" t="n">
@@ -11266,7 +11134,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Y2_28</t>
+          <t>2021_28</t>
         </is>
       </c>
       <c r="C365" t="n">
@@ -11296,7 +11164,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Y2_29</t>
+          <t>2021_29</t>
         </is>
       </c>
       <c r="C366" t="n">
@@ -11326,7 +11194,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Y2_30</t>
+          <t>2021_30</t>
         </is>
       </c>
       <c r="C367" t="n">
@@ -11356,7 +11224,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Y2_31</t>
+          <t>2021_31</t>
         </is>
       </c>
       <c r="C368" t="n">
@@ -11386,7 +11254,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Y2_32</t>
+          <t>2021_32</t>
         </is>
       </c>
       <c r="C369" t="n">
@@ -11416,7 +11284,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Y2_33</t>
+          <t>2021_33</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -11446,7 +11314,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Y2_34</t>
+          <t>2021_34</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -11476,7 +11344,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Y2_35</t>
+          <t>2021_35</t>
         </is>
       </c>
       <c r="C372" t="n">
@@ -11506,7 +11374,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Y2_36</t>
+          <t>2021_36</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -11536,7 +11404,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Y2_37</t>
+          <t>2021_37</t>
         </is>
       </c>
       <c r="C374" t="n">
@@ -11566,7 +11434,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Y2_38</t>
+          <t>2021_38</t>
         </is>
       </c>
       <c r="C375" t="n">
@@ -11596,7 +11464,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Y2_39</t>
+          <t>2021_39</t>
         </is>
       </c>
       <c r="C376" t="n">
@@ -11626,7 +11494,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Y2_40</t>
+          <t>2021_40</t>
         </is>
       </c>
       <c r="C377" t="n">
@@ -11656,7 +11524,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Y2_41</t>
+          <t>2021_41</t>
         </is>
       </c>
       <c r="C378" t="n">
@@ -11686,7 +11554,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Y2_42</t>
+          <t>2021_42</t>
         </is>
       </c>
       <c r="C379" t="n">
@@ -11716,7 +11584,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Y2_43</t>
+          <t>2021_43</t>
         </is>
       </c>
       <c r="C380" t="n">
@@ -11746,7 +11614,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Y2_44</t>
+          <t>2021_44</t>
         </is>
       </c>
       <c r="C381" t="n">
@@ -11776,7 +11644,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Y2_45</t>
+          <t>2021_45</t>
         </is>
       </c>
       <c r="C382" t="n">
@@ -11806,7 +11674,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Y2_46</t>
+          <t>2021_46</t>
         </is>
       </c>
       <c r="C383" t="n">
@@ -11836,7 +11704,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Y2_47</t>
+          <t>2021_47</t>
         </is>
       </c>
       <c r="C384" t="n">
@@ -11866,7 +11734,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Y2_48</t>
+          <t>2021_48</t>
         </is>
       </c>
       <c r="C385" t="n">
@@ -11896,7 +11764,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Y3_1</t>
+          <t>2022_1</t>
         </is>
       </c>
       <c r="C386" t="n">
@@ -11926,7 +11794,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Y3_2</t>
+          <t>2022_2</t>
         </is>
       </c>
       <c r="C387" t="n">
@@ -11956,7 +11824,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Y3_3</t>
+          <t>2022_3</t>
         </is>
       </c>
       <c r="C388" t="n">
@@ -11986,7 +11854,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Y3_4</t>
+          <t>2022_4</t>
         </is>
       </c>
       <c r="C389" t="n">
@@ -12016,7 +11884,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Y3_5</t>
+          <t>2022_5</t>
         </is>
       </c>
       <c r="C390" t="n">
@@ -12046,7 +11914,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Y3_6</t>
+          <t>2022_6</t>
         </is>
       </c>
       <c r="C391" t="n">
@@ -12076,7 +11944,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Y3_7</t>
+          <t>2022_7</t>
         </is>
       </c>
       <c r="C392" t="n">
@@ -12106,7 +11974,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Y3_8</t>
+          <t>2022_8</t>
         </is>
       </c>
       <c r="C393" t="n">
@@ -12136,7 +12004,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Y3_9</t>
+          <t>2022_9</t>
         </is>
       </c>
       <c r="C394" t="n">
@@ -12166,7 +12034,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Y3_10</t>
+          <t>2022_10</t>
         </is>
       </c>
       <c r="C395" t="n">
@@ -12196,7 +12064,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Y3_11</t>
+          <t>2022_11</t>
         </is>
       </c>
       <c r="C396" t="n">
@@ -12226,7 +12094,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Y3_12</t>
+          <t>2022_12</t>
         </is>
       </c>
       <c r="C397" t="n">
@@ -12256,7 +12124,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Y3_13</t>
+          <t>2022_13</t>
         </is>
       </c>
       <c r="C398" t="n">
@@ -12286,7 +12154,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Y3_14</t>
+          <t>2022_14</t>
         </is>
       </c>
       <c r="C399" t="n">
@@ -12316,7 +12184,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Y3_15</t>
+          <t>2022_15</t>
         </is>
       </c>
       <c r="C400" t="n">
@@ -12346,7 +12214,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Y3_16</t>
+          <t>2022_16</t>
         </is>
       </c>
       <c r="C401" t="n">
@@ -12376,7 +12244,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Y3_17</t>
+          <t>2022_17</t>
         </is>
       </c>
       <c r="C402" t="n">
@@ -12406,7 +12274,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Y3_18</t>
+          <t>2022_18</t>
         </is>
       </c>
       <c r="C403" t="n">
@@ -12436,7 +12304,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Y3_19</t>
+          <t>2022_19</t>
         </is>
       </c>
       <c r="C404" t="n">
@@ -12466,7 +12334,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Y3_20</t>
+          <t>2022_20</t>
         </is>
       </c>
       <c r="C405" t="n">
@@ -12496,7 +12364,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Y3_21</t>
+          <t>2022_21</t>
         </is>
       </c>
       <c r="C406" t="n">
@@ -12526,7 +12394,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Y3_22</t>
+          <t>2022_22</t>
         </is>
       </c>
       <c r="C407" t="n">
@@ -12556,7 +12424,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Y3_23</t>
+          <t>2022_23</t>
         </is>
       </c>
       <c r="C408" t="n">
@@ -12586,7 +12454,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Y3_24</t>
+          <t>2022_24</t>
         </is>
       </c>
       <c r="C409" t="n">
@@ -12616,7 +12484,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Y3_25</t>
+          <t>2022_25</t>
         </is>
       </c>
       <c r="C410" t="n">
@@ -12646,7 +12514,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Y3_26</t>
+          <t>2022_26</t>
         </is>
       </c>
       <c r="C411" t="n">
@@ -12676,7 +12544,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Y3_27</t>
+          <t>2022_27</t>
         </is>
       </c>
       <c r="C412" t="n">
@@ -12706,7 +12574,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Y3_28</t>
+          <t>2022_28</t>
         </is>
       </c>
       <c r="C413" t="n">
@@ -12736,7 +12604,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Y3_29</t>
+          <t>2022_29</t>
         </is>
       </c>
       <c r="C414" t="n">
@@ -12766,7 +12634,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Y3_30</t>
+          <t>2022_30</t>
         </is>
       </c>
       <c r="C415" t="n">
@@ -12796,7 +12664,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Y3_31</t>
+          <t>2022_31</t>
         </is>
       </c>
       <c r="C416" t="n">
@@ -12826,7 +12694,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Y3_32</t>
+          <t>2022_32</t>
         </is>
       </c>
       <c r="C417" t="n">
@@ -12856,7 +12724,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Y3_33</t>
+          <t>2022_33</t>
         </is>
       </c>
       <c r="C418" t="n">
@@ -12886,7 +12754,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Y3_34</t>
+          <t>2022_34</t>
         </is>
       </c>
       <c r="C419" t="n">
@@ -12916,7 +12784,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Y3_35</t>
+          <t>2022_35</t>
         </is>
       </c>
       <c r="C420" t="n">
@@ -12946,7 +12814,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Y3_36</t>
+          <t>2022_36</t>
         </is>
       </c>
       <c r="C421" t="n">
@@ -12976,7 +12844,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Y3_37</t>
+          <t>2022_37</t>
         </is>
       </c>
       <c r="C422" t="n">
@@ -13006,7 +12874,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Y3_38</t>
+          <t>2022_38</t>
         </is>
       </c>
       <c r="C423" t="n">
@@ -13036,7 +12904,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Y3_39</t>
+          <t>2022_39</t>
         </is>
       </c>
       <c r="C424" t="n">
@@ -13066,7 +12934,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Y3_40</t>
+          <t>2022_40</t>
         </is>
       </c>
       <c r="C425" t="n">
@@ -13096,7 +12964,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Y3_41</t>
+          <t>2022_41</t>
         </is>
       </c>
       <c r="C426" t="n">
@@ -13126,7 +12994,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Y3_42</t>
+          <t>2022_42</t>
         </is>
       </c>
       <c r="C427" t="n">
@@ -13156,7 +13024,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Y3_43</t>
+          <t>2022_43</t>
         </is>
       </c>
       <c r="C428" t="n">
@@ -13186,7 +13054,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Y3_44</t>
+          <t>2022_44</t>
         </is>
       </c>
       <c r="C429" t="n">
@@ -13216,7 +13084,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Y3_45</t>
+          <t>2022_45</t>
         </is>
       </c>
       <c r="C430" t="n">
@@ -13246,7 +13114,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Y3_46</t>
+          <t>2022_46</t>
         </is>
       </c>
       <c r="C431" t="n">
@@ -13276,7 +13144,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Y3_47</t>
+          <t>2022_47</t>
         </is>
       </c>
       <c r="C432" t="n">
@@ -13306,7 +13174,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Y3_48</t>
+          <t>2022_48</t>
         </is>
       </c>
       <c r="C433" t="n">

--- a/summaryFrame.xlsx
+++ b/summaryFrame.xlsx
@@ -623,7 +623,7 @@
         <v>2500</v>
       </c>
       <c r="D7" t="n">
-        <v>31992.62597083192</v>
+        <v>32425.34871603033</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -631,13 +631,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1924.761711806747</v>
+        <v>2346.330834897397</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0601626672834414</v>
+        <v>0.07236100544193766</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7699046847226989</v>
+        <v>0.938532333958959</v>
       </c>
     </row>
     <row r="8">
@@ -653,7 +653,7 @@
         <v>2500</v>
       </c>
       <c r="D8" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3176.184597503841</v>
+        <v>3796.563080595089</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09539008677762659</v>
+        <v>0.1118785142839566</v>
       </c>
       <c r="H8" t="n">
-        <v>1.270473839001536</v>
+        <v>1.518625232238035</v>
       </c>
     </row>
     <row r="9">
@@ -683,7 +683,7 @@
         <v>2500</v>
       </c>
       <c r="D9" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4020.599770451164</v>
+        <v>4738.102125986024</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1176114227149471</v>
+        <v>0.1356745383796184</v>
       </c>
       <c r="H9" t="n">
-        <v>1.608239908180466</v>
+        <v>1.895240850394409</v>
       </c>
     </row>
     <row r="10">
@@ -713,7 +713,7 @@
         <v>2500</v>
       </c>
       <c r="D10" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4611.60802829395</v>
+        <v>5379.023088284154</v>
       </c>
       <c r="G10" t="n">
-        <v>0.132476468332437</v>
+        <v>0.15111447698689</v>
       </c>
       <c r="H10" t="n">
-        <v>1.84464321131758</v>
+        <v>2.151609235313662</v>
       </c>
     </row>
     <row r="11">
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>33519.43748014412</v>
+        <v>34185.45305923072</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3362.098061780855</v>
+        <v>4018.008873187078</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1003029380720502</v>
+        <v>0.117535633248018</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>32258.58031207752</v>
+        <v>32738.50962926309</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2146.85129256063</v>
+        <v>2623.56845745195</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06655132593534674</v>
+        <v>0.08013707670757532</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>31075.43742539147</v>
+        <v>31325.71526816589</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1009.9945516144</v>
+        <v>1258.217197019251</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03250137842916226</v>
+        <v>0.04016563344996907</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>2500</v>
       </c>
       <c r="D15" t="n">
-        <v>31992.62597083192</v>
+        <v>32425.34871603033</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1926.678560554649</v>
+        <v>2348.784299206962</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06022258261360683</v>
+        <v>0.0724366704511578</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7706714242218595</v>
+        <v>0.9395137196827849</v>
       </c>
     </row>
     <row r="16">
@@ -891,7 +891,7 @@
         <v>2500</v>
       </c>
       <c r="D16" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3179.229048928643</v>
+        <v>3800.363706741748</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09548152053302934</v>
+        <v>0.1119905125301626</v>
       </c>
       <c r="H16" t="n">
-        <v>1.271691619571457</v>
+        <v>1.520145482696699</v>
       </c>
     </row>
     <row r="17">
@@ -921,7 +921,7 @@
         <v>2500</v>
       </c>
       <c r="D17" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4024.358858224</v>
+        <v>4742.71808804395</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1177213843341867</v>
+        <v>0.1358067154633398</v>
       </c>
       <c r="H17" t="n">
-        <v>1.6097435432896</v>
+        <v>1.89708723521758</v>
       </c>
     </row>
     <row r="18">
@@ -951,7 +951,7 @@
         <v>2500</v>
       </c>
       <c r="D18" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4614.449073753307</v>
+        <v>5381.893084663983</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1325580823088457</v>
+        <v>0.1511951046389328</v>
       </c>
       <c r="H18" t="n">
-        <v>1.845779629501323</v>
+        <v>2.152757233865593</v>
       </c>
     </row>
     <row r="19">
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>50920.98531404293</v>
+        <v>51587.00089312953</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -989,10 +989,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3958.471910779902</v>
+        <v>4709.121506794013</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07773753564207328</v>
+        <v>0.09128504129460226</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>51892.26753430283</v>
+        <v>52372.19685148841</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2601.059392412222</v>
+        <v>3165.135420541163</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0501242191949469</v>
+        <v>0.06043541441495232</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>50936.09185855123</v>
+        <v>51186.36970132565</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1049,10 +1049,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1238.287164455546</v>
+        <v>1538.478129297921</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02431060411729764</v>
+        <v>0.03005640248126597</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>2500</v>
       </c>
       <c r="D23" t="n">
-        <v>42957.7935545179</v>
+        <v>43390.51629971631</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2157.363786926664</v>
+        <v>2624.21312351789</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05022054459544682</v>
+        <v>0.06047895594031102</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8629455147706656</v>
+        <v>1.049685249407156</v>
       </c>
     </row>
     <row r="24">
@@ -1129,7 +1129,7 @@
         <v>2500</v>
       </c>
       <c r="D24" t="n">
-        <v>35243.43129802477</v>
+        <v>35881.32516125483</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1137,13 +1137,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3242.376062961945</v>
+        <v>3873.032149743467</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09199944340106478</v>
+        <v>0.1079400532822467</v>
       </c>
       <c r="H24" t="n">
-        <v>1.296950425184778</v>
+        <v>1.549212859897387</v>
       </c>
     </row>
     <row r="25">
@@ -1159,7 +1159,7 @@
         <v>6250</v>
       </c>
       <c r="D25" t="n">
-        <v>36000.18191704792</v>
+        <v>36819.2317176917</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5629.3199632995</v>
+        <v>6427.957215036249</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1563692088076291</v>
+        <v>0.1745815139306018</v>
       </c>
       <c r="H25" t="n">
-        <v>0.90069119412792</v>
+        <v>1.0284731544058</v>
       </c>
     </row>
     <row r="26">
@@ -1189,7 +1189,7 @@
         <v>6250</v>
       </c>
       <c r="D26" t="n">
-        <v>37152.09085133347</v>
+        <v>37919.54817642979</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1197,13 +1197,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6903.964325253321</v>
+        <v>7666.041798367914</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1858297653523724</v>
+        <v>0.2021659583785075</v>
       </c>
       <c r="H26" t="n">
-        <v>1.104634292040531</v>
+        <v>1.226566687738866</v>
       </c>
     </row>
     <row r="27">
@@ -1219,7 +1219,7 @@
         <v>3750</v>
       </c>
       <c r="D27" t="n">
-        <v>37126.66325924921</v>
+        <v>37896.30314513999</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>6870.359921857703</v>
+        <v>7637.722950701477</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1850519092944912</v>
+        <v>0.2015426919467467</v>
       </c>
       <c r="H27" t="n">
-        <v>1.832095979162054</v>
+        <v>2.036726120187061</v>
       </c>
     </row>
     <row r="28">
@@ -1249,7 +1249,7 @@
         <v>3750</v>
       </c>
       <c r="D28" t="n">
-        <v>37106.15782060949</v>
+        <v>37877.52026173257</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>6843.393811771966</v>
+        <v>7614.913454795234</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1844274431445179</v>
+        <v>0.2010404430431666</v>
       </c>
       <c r="H28" t="n">
-        <v>1.824905016472524</v>
+        <v>2.030643587945396</v>
       </c>
     </row>
     <row r="29">
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>35344.07478351054</v>
+        <v>36154.01580598178</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1287,10 +1287,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5109.330734866008</v>
+        <v>5909.957096432639</v>
       </c>
       <c r="G29" t="n">
-        <v>0.144559753400299</v>
+        <v>0.1634661313461842</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>33188.68572820453</v>
+        <v>33812.16608193859</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1317,10 +1317,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3046.753911507089</v>
+        <v>3666.677895562629</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0918009811071815</v>
+        <v>0.1084425613750092</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>2500</v>
       </c>
       <c r="D31" t="n">
-        <v>33248.96245052692</v>
+        <v>33880.53923784704</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3126.024357690117</v>
+        <v>3747.684901389368</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09401870396231193</v>
+        <v>0.110614676911722</v>
       </c>
       <c r="H31" t="n">
-        <v>1.250409743076047</v>
+        <v>1.499073960555747</v>
       </c>
     </row>
     <row r="32">
@@ -1369,7 +1369,7 @@
         <v>2500</v>
       </c>
       <c r="D32" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3188.186615235266</v>
+        <v>3811.32426243409</v>
       </c>
       <c r="G32" t="n">
-        <v>0.09575054237388099</v>
+        <v>0.1123135022080776</v>
       </c>
       <c r="H32" t="n">
-        <v>1.275274646094106</v>
+        <v>1.524529704973636</v>
       </c>
     </row>
     <row r="33">
@@ -1399,7 +1399,7 @@
         <v>2500</v>
       </c>
       <c r="D33" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1407,13 +1407,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4035.418043605932</v>
+        <v>4756.028589324394</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1180448899306394</v>
+        <v>0.1361878588133155</v>
       </c>
       <c r="H33" t="n">
-        <v>1.614167217442373</v>
+        <v>1.902411435729757</v>
       </c>
     </row>
     <row r="34">
@@ -1429,7 +1429,7 @@
         <v>2500</v>
       </c>
       <c r="D34" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1437,13 +1437,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4617.744497484806</v>
+        <v>5386.638128048313</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1326527490920869</v>
+        <v>0.1513284085377141</v>
       </c>
       <c r="H34" t="n">
-        <v>1.847097798993922</v>
+        <v>2.154655251219325</v>
       </c>
     </row>
     <row r="35">
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>33519.43748014412</v>
+        <v>34185.45305923072</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3366.738008771385</v>
+        <v>4023.922474346827</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1004413636346295</v>
+        <v>0.1177086191420327</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>32258.58031207752</v>
+        <v>32738.50962926309</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2149.925415499748</v>
+        <v>2627.593649121653</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0666466222227028</v>
+        <v>0.0802600264604897</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>31075.43742539147</v>
+        <v>31325.71526816589</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1011.493618106357</v>
+        <v>1260.231625798107</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03254961802339342</v>
+        <v>0.04022993936482567</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1577,7 +1577,7 @@
         <v>2500</v>
       </c>
       <c r="D39" t="n">
-        <v>49394.17380473073</v>
+        <v>49826.89654992914</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2294.743916704763</v>
+        <v>2788.972816153474</v>
       </c>
       <c r="G39" t="n">
-        <v>0.04645778519905081</v>
+        <v>0.05597323954059185</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9178975666819051</v>
+        <v>1.11558912646139</v>
       </c>
     </row>
     <row r="40">
@@ -1607,7 +1607,7 @@
         <v>2500</v>
       </c>
       <c r="D40" t="n">
-        <v>52930.48676186892</v>
+        <v>53568.38062509898</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1615,13 +1615,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3818.78014822888</v>
+        <v>4541.715282926674</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07214708161308514</v>
+        <v>0.08478350903888802</v>
       </c>
       <c r="H40" t="n">
-        <v>1.527512059291552</v>
+        <v>1.81668611317067</v>
       </c>
     </row>
     <row r="41">
@@ -1637,7 +1637,7 @@
         <v>2500</v>
       </c>
       <c r="D41" t="n">
-        <v>54046.10749239048</v>
+        <v>54783.2138357853</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1645,13 +1645,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4807.240742807251</v>
+        <v>5633.127518998983</v>
       </c>
       <c r="G41" t="n">
-        <v>0.08894702996851522</v>
+        <v>0.1028257950671622</v>
       </c>
       <c r="H41" t="n">
-        <v>1.9228962971229</v>
+        <v>2.253251007599593</v>
       </c>
     </row>
     <row r="42">
@@ -1667,7 +1667,7 @@
         <v>2500</v>
       </c>
       <c r="D42" t="n">
-        <v>54718.83567006505</v>
+        <v>55503.74792659446</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1675,13 +1675,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5486.796660841803</v>
+        <v>6361.581876047021</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1002725404086669</v>
+        <v>0.1146153568667187</v>
       </c>
       <c r="H42" t="n">
-        <v>2.194718664336721</v>
+        <v>2.544632750418808</v>
       </c>
     </row>
     <row r="43">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>44484.60506383009</v>
+        <v>45150.6206429167</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3737.05711352141</v>
+        <v>4452.046108752455</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08400787436820399</v>
+        <v>0.09860431695861747</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>34205.21207045868</v>
+        <v>34685.14138764425</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1735,10 +1735,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2194.753243238632</v>
+        <v>2680.629318251007</v>
       </c>
       <c r="G44" t="n">
-        <v>0.06416429281940138</v>
+        <v>0.07728465881952312</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>31241.92428230162</v>
+        <v>31492.20212507604</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1765,10 +1765,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1013.518183171414</v>
+        <v>1262.624500574534</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03244096535198271</v>
+        <v>0.04009324262431156</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>2500</v>
       </c>
       <c r="D47" t="n">
-        <v>31992.62597083192</v>
+        <v>32425.34871603033</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1823,13 +1823,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1926.784612547919</v>
+        <v>2348.616031059581</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06022589750227422</v>
+        <v>0.07243148104983926</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7707138450191677</v>
+        <v>0.9394464124238324</v>
       </c>
     </row>
     <row r="48">
@@ -1845,7 +1845,7 @@
         <v>2500</v>
       </c>
       <c r="D48" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1853,13 +1853,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3179.397480279243</v>
+        <v>3800.103055798007</v>
       </c>
       <c r="G48" t="n">
-        <v>0.09548657901771641</v>
+        <v>0.1119828315724876</v>
       </c>
       <c r="H48" t="n">
-        <v>1.271758992111697</v>
+        <v>1.520041222319203</v>
       </c>
     </row>
     <row r="49">
@@ -1875,7 +1875,7 @@
         <v>2500</v>
       </c>
       <c r="D49" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1883,13 +1883,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4024.566820976545</v>
+        <v>4742.401528413311</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1177274677039811</v>
+        <v>0.1357976508461968</v>
       </c>
       <c r="H49" t="n">
-        <v>1.609826728390618</v>
+        <v>1.896960611365324</v>
       </c>
     </row>
     <row r="50">
@@ -1905,7 +1905,7 @@
         <v>2500</v>
       </c>
       <c r="D50" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1913,13 +1913,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>4614.879519095678</v>
+        <v>5382.599539236379</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1325704476006089</v>
+        <v>0.1512149512749242</v>
       </c>
       <c r="H50" t="n">
-        <v>1.845951807638271</v>
+        <v>2.153039815694552</v>
       </c>
     </row>
     <row r="51">
@@ -1935,7 +1935,7 @@
         <v>3750</v>
       </c>
       <c r="D51" t="n">
-        <v>35356.47404439229</v>
+        <v>36166.8144104372</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1943,13 +1943,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>5144.041877517055</v>
+        <v>5936.209454575997</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1454908051933681</v>
+        <v>0.1641341531274841</v>
       </c>
       <c r="H51" t="n">
-        <v>1.371744500671215</v>
+        <v>1.582989187886933</v>
       </c>
     </row>
     <row r="52">
@@ -1965,7 +1965,7 @@
         <v>3750</v>
       </c>
       <c r="D52" t="n">
-        <v>35751.41879538076</v>
+        <v>36569.91482581294</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1973,13 +1973,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5525.704487694858</v>
+        <v>6327.316525781628</v>
       </c>
       <c r="G52" t="n">
-        <v>0.154559026575158</v>
+        <v>0.1730197227945273</v>
       </c>
       <c r="H52" t="n">
-        <v>1.473521196718629</v>
+        <v>1.687284406875101</v>
       </c>
     </row>
     <row r="53">
@@ -1995,7 +1995,7 @@
         <v>3750</v>
       </c>
       <c r="D53" t="n">
-        <v>36043.0481980255</v>
+        <v>36861.65307556958</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2003,13 +2003,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>5806.834020060734</v>
+        <v>6610.815472409889</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1611082943972215</v>
+        <v>0.1793412644532557</v>
       </c>
       <c r="H53" t="n">
-        <v>1.548489072016196</v>
+        <v>1.76288412597597</v>
       </c>
     </row>
     <row r="54">
@@ -2025,7 +2025,7 @@
         <v>3750</v>
       </c>
       <c r="D54" t="n">
-        <v>36261.87147054533</v>
+        <v>37077.0742231914</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2033,13 +2033,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>6013.662689993803</v>
+        <v>6815.550072650192</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1658398324774429</v>
+        <v>0.1838211405685058</v>
       </c>
       <c r="H54" t="n">
-        <v>1.603643383998347</v>
+        <v>1.817480019373385</v>
       </c>
     </row>
     <row r="55">
@@ -2055,7 +2055,7 @@
         <v>2500</v>
       </c>
       <c r="D55" t="n">
-        <v>35822.57008692643</v>
+        <v>36641.56872710963</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2063,13 +2063,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5583.018040204071</v>
+        <v>6387.24198447647</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1558519678140462</v>
+        <v>0.1743168266633411</v>
       </c>
       <c r="H55" t="n">
-        <v>2.233207216081629</v>
+        <v>2.554896793790588</v>
       </c>
     </row>
     <row r="56">
@@ -2085,7 +2085,7 @@
         <v>2500</v>
       </c>
       <c r="D56" t="n">
-        <v>35434.23950376685</v>
+        <v>36246.889011486</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2093,13 +2093,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>5206.825082459376</v>
+        <v>6003.476728702418</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1469433281305745</v>
+        <v>0.1656273653388577</v>
       </c>
       <c r="H56" t="n">
-        <v>2.082730032983751</v>
+        <v>2.401390691480967</v>
       </c>
     </row>
     <row r="57">
@@ -2115,7 +2115,7 @@
         <v>2500</v>
       </c>
       <c r="D57" t="n">
-        <v>35097.74058420179</v>
+        <v>35898.00278020033</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2123,13 +2123,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4884.307729162791</v>
+        <v>5667.425173820506</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1391630243959726</v>
+        <v>0.1578757795669455</v>
       </c>
       <c r="H57" t="n">
-        <v>1.953723091665116</v>
+        <v>2.266970069528202</v>
       </c>
     </row>
     <row r="58">
@@ -2145,7 +2145,7 @@
         <v>2500</v>
       </c>
       <c r="D58" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2153,13 +2153,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4611.60802829395</v>
+        <v>5379.023088284154</v>
       </c>
       <c r="G58" t="n">
-        <v>0.132476468332437</v>
+        <v>0.15111447698689</v>
       </c>
       <c r="H58" t="n">
-        <v>1.84464321131758</v>
+        <v>2.151609235313662</v>
       </c>
     </row>
     <row r="59">
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>50920.98531404293</v>
+        <v>51587.00089312953</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2183,10 +2183,10 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3956.829524550938</v>
+        <v>4707.417420747308</v>
       </c>
       <c r="G59" t="n">
-        <v>0.07770528201974378</v>
+        <v>0.09125200804945907</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>51892.26753430283</v>
+        <v>52372.19685148841</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2599.994355461204</v>
+        <v>3164.000779234214</v>
       </c>
       <c r="G60" t="n">
-        <v>0.05010369519394205</v>
+        <v>0.06041374945959125</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>50936.09185855123</v>
+        <v>51186.36970132565</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2243,10 +2243,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1237.766541364994</v>
+        <v>1537.908541464385</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02430038301333078</v>
+        <v>0.03004527475650526</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>2500</v>
       </c>
       <c r="D63" t="n">
-        <v>42957.7935545179</v>
+        <v>43390.51629971631</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2301,13 +2301,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2157.198893826416</v>
+        <v>2624.000759913275</v>
       </c>
       <c r="G63" t="n">
-        <v>0.05021670610453275</v>
+        <v>0.06047406170021606</v>
       </c>
       <c r="H63" t="n">
-        <v>0.8628795575305664</v>
+        <v>1.04960030396531</v>
       </c>
     </row>
     <row r="64">
@@ -2323,7 +2323,7 @@
         <v>2500</v>
       </c>
       <c r="D64" t="n">
-        <v>35243.43129802477</v>
+        <v>35881.32516125483</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2331,13 +2331,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3242.073525822085</v>
+        <v>3872.652408083436</v>
       </c>
       <c r="G64" t="n">
-        <v>0.09199085918753286</v>
+        <v>0.1079294700148138</v>
       </c>
       <c r="H64" t="n">
-        <v>1.296829410328834</v>
+        <v>1.549060963233374</v>
       </c>
     </row>
     <row r="65">
@@ -2353,7 +2353,7 @@
         <v>2500</v>
       </c>
       <c r="D65" t="n">
-        <v>34351.93991614087</v>
+        <v>35089.04625953569</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2361,13 +2361,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>4031.741570319893</v>
+        <v>4751.017880249031</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1173657610068626</v>
+        <v>0.1353988890181906</v>
       </c>
       <c r="H65" t="n">
-        <v>1.612696628127957</v>
+        <v>1.900407152099612</v>
       </c>
     </row>
     <row r="66">
@@ -2383,7 +2383,7 @@
         <v>2500</v>
       </c>
       <c r="D66" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2391,13 +2391,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4614.449073753307</v>
+        <v>5381.893084663983</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1325580823088457</v>
+        <v>0.1511951046389328</v>
       </c>
       <c r="H66" t="n">
-        <v>1.845779629501323</v>
+        <v>2.152757233865593</v>
       </c>
     </row>
     <row r="67">
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>33519.43748014412</v>
+        <v>34185.45305923072</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3364.246194616806</v>
+        <v>4020.2375446331</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1003670242559912</v>
+        <v>0.1176008268097988</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>32258.58031207752</v>
+        <v>32738.50962926309</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2451,10 +2451,10 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2148.274464168147</v>
+        <v>2625.085381035957</v>
       </c>
       <c r="G68" t="n">
-        <v>0.06659544354975346</v>
+        <v>0.08018341124146783</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>31075.43742539147</v>
+        <v>31325.71526816589</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2481,10 +2481,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1010.688528096072</v>
+        <v>1258.976318030889</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0325237104231475</v>
+        <v>0.04018986660809937</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2531,7 +2531,7 @@
         <v>2500</v>
       </c>
       <c r="D71" t="n">
-        <v>31992.62597083192</v>
+        <v>32425.34871603033</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2539,13 +2539,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1926.876598438978</v>
+        <v>2349.039207126811</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0602287727239313</v>
+        <v>0.07244453182905945</v>
       </c>
       <c r="H71" t="n">
-        <v>0.7707506393755911</v>
+        <v>0.9396156828507244</v>
       </c>
     </row>
     <row r="72">
@@ -2561,7 +2561,7 @@
         <v>2500</v>
       </c>
       <c r="D72" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2569,13 +2569,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3179.543571339292</v>
+        <v>3800.758561504512</v>
       </c>
       <c r="G72" t="n">
-        <v>0.095490966558323</v>
+        <v>0.1120021482552324</v>
       </c>
       <c r="H72" t="n">
-        <v>1.271817428535717</v>
+        <v>1.520303424601805</v>
       </c>
     </row>
     <row r="73">
@@ -2591,7 +2591,7 @@
         <v>2500</v>
       </c>
       <c r="D73" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4024.747199658778</v>
+        <v>4743.197635510141</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1177327441787998</v>
+        <v>0.1358204472022042</v>
       </c>
       <c r="H73" t="n">
-        <v>1.609898879863511</v>
+        <v>1.897279054204057</v>
       </c>
     </row>
     <row r="74">
@@ -2621,7 +2621,7 @@
         <v>2500</v>
       </c>
       <c r="D74" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2629,13 +2629,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>4615.366303417642</v>
+        <v>5383.765966582972</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1325844313276338</v>
+        <v>0.1512477200612876</v>
       </c>
       <c r="H74" t="n">
-        <v>1.846146521367057</v>
+        <v>2.153506386633189</v>
       </c>
     </row>
     <row r="75">
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>33519.43748014412</v>
+        <v>34185.45305923072</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2659,10 +2659,10 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3364.939738856619</v>
+        <v>4021.691965994864</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1003877150638314</v>
+        <v>0.1176433718466964</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>32258.58031207752</v>
+        <v>32738.50962926309</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2689,10 +2689,10 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2148.733962645843</v>
+        <v>2626.075357274239</v>
       </c>
       <c r="G76" t="n">
-        <v>0.06660968777480153</v>
+        <v>0.08021365013289851</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>3750</v>
       </c>
       <c r="D77" t="n">
-        <v>33605.27148211796</v>
+        <v>34281.55906684759</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>3468.883704010688</v>
+        <v>4129.104615397628</v>
       </c>
       <c r="G77" t="n">
-        <v>0.1032243916213131</v>
+        <v>0.1204468153664204</v>
       </c>
       <c r="H77" t="n">
-        <v>0.9250356544028501</v>
+        <v>1.101094564106034</v>
       </c>
     </row>
     <row r="78">
@@ -2741,7 +2741,7 @@
         <v>3750</v>
       </c>
       <c r="D78" t="n">
-        <v>34511.88363905974</v>
+        <v>35276.33447258985</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>4358.610745239352</v>
+        <v>5102.688503057534</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1262930412846657</v>
+        <v>0.1446490566366068</v>
       </c>
       <c r="H78" t="n">
-        <v>1.162296198730494</v>
+        <v>1.360716934148676</v>
       </c>
     </row>
     <row r="79">
@@ -2771,7 +2771,7 @@
         <v>6250</v>
       </c>
       <c r="D79" t="n">
-        <v>53851.25695645597</v>
+        <v>54661.04711302234</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2779,13 +2779,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>7180.467148597273</v>
+        <v>8059.958181569756</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1333388959593531</v>
+        <v>0.147453417145563</v>
       </c>
       <c r="H79" t="n">
-        <v>1.148874743775564</v>
+        <v>1.289593309051161</v>
       </c>
     </row>
     <row r="80">
@@ -2801,7 +2801,7 @@
         <v>6250</v>
       </c>
       <c r="D80" t="n">
-        <v>57127.94473427413</v>
+        <v>57860.84312252654</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2809,13 +2809,13 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>8449.286726481285</v>
+        <v>9260.060912706034</v>
       </c>
       <c r="G80" t="n">
-        <v>0.1479011150459278</v>
+        <v>0.1600402001245793</v>
       </c>
       <c r="H80" t="n">
-        <v>1.351885876237006</v>
+        <v>1.481609746032966</v>
       </c>
     </row>
     <row r="81">
@@ -2831,7 +2831,7 @@
         <v>2500</v>
       </c>
       <c r="D81" t="n">
-        <v>56827.21772433855</v>
+        <v>57609.43062770835</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2839,13 +2839,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>7860.457639256088</v>
+        <v>8727.014008448385</v>
       </c>
       <c r="G81" t="n">
-        <v>0.1383220568247094</v>
+        <v>0.1514858576687783</v>
       </c>
       <c r="H81" t="n">
-        <v>3.144183055702436</v>
+        <v>3.490805603379354</v>
       </c>
     </row>
     <row r="82">
@@ -2861,7 +2861,7 @@
         <v>2500</v>
       </c>
       <c r="D82" t="n">
-        <v>56373.51765206664</v>
+        <v>57182.74654131432</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2869,13 +2869,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>7290.318763324145</v>
+        <v>8188.077265181798</v>
       </c>
       <c r="G82" t="n">
-        <v>0.129321693358209</v>
+        <v>0.1431913953147728</v>
       </c>
       <c r="H82" t="n">
-        <v>2.916127505329658</v>
+        <v>3.275230906072719</v>
       </c>
     </row>
     <row r="83">
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>45501.38872761069</v>
+        <v>46267.67188127172</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>4784.702795483315</v>
+        <v>5601.648850694751</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1051550937077204</v>
+        <v>0.1210704715177639</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>34205.21207045868</v>
+        <v>34685.14138764425</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2929,10 +2929,10 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2195.12957214574</v>
+        <v>2681.228560611549</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0641752949118992</v>
+        <v>0.07730193544970448</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>31241.92428230162</v>
+        <v>31492.20212507604</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2959,10 +2959,10 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1013.708333513093</v>
+        <v>1262.935270566462</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03244705173577779</v>
+        <v>0.0401031107812189</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>2500</v>
       </c>
       <c r="D87" t="n">
-        <v>31992.62597083192</v>
+        <v>32425.34871603033</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3017,13 +3017,13 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1928.526629693768</v>
+        <v>2351.385718078698</v>
       </c>
       <c r="G87" t="n">
-        <v>0.06028034808558792</v>
+        <v>0.07251689838932179</v>
       </c>
       <c r="H87" t="n">
-        <v>0.7714106518775072</v>
+        <v>0.940554287231479</v>
       </c>
     </row>
     <row r="88">
@@ -3039,7 +3039,7 @@
         <v>2500</v>
       </c>
       <c r="D88" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3047,13 +3047,13 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3182.164045365186</v>
+        <v>3804.393157355289</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09556966703591016</v>
+        <v>0.1121092538597424</v>
       </c>
       <c r="H88" t="n">
-        <v>1.272865618146074</v>
+        <v>1.521757262942116</v>
       </c>
     </row>
     <row r="89">
@@ -3069,7 +3069,7 @@
         <v>2500</v>
       </c>
       <c r="D89" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3077,13 +3077,13 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4027.982630617099</v>
+        <v>4747.611693115632</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1178273876797273</v>
+        <v>0.1359468427952247</v>
       </c>
       <c r="H89" t="n">
-        <v>1.61119305224684</v>
+        <v>1.899044677246253</v>
       </c>
     </row>
     <row r="90">
@@ -3099,7 +3099,7 @@
         <v>2500</v>
       </c>
       <c r="D90" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3107,13 +3107,13 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4616.964142146291</v>
+        <v>5385.460356990327</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1326303320265738</v>
+        <v>0.1512953210691317</v>
       </c>
       <c r="H90" t="n">
-        <v>1.846785656858516</v>
+        <v>2.154184142796131</v>
       </c>
     </row>
     <row r="91">
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>33519.43748014412</v>
+        <v>34185.45305923072</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3137,10 +3137,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>3366.14793600134</v>
+        <v>4023.007810965876</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1004237597362826</v>
+        <v>0.1176818632181207</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>32258.58031207752</v>
+        <v>32738.50962926309</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3167,10 +3167,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2149.534454521995</v>
+        <v>2626.971035344824</v>
       </c>
       <c r="G92" t="n">
-        <v>0.06663450262618084</v>
+        <v>0.08024100868039283</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>31075.43742539147</v>
+        <v>31325.71526816589</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3197,10 +3197,10 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1011.302961052769</v>
+        <v>1259.920017830146</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03254348272589212</v>
+        <v>0.04021999201118045</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>2500</v>
       </c>
       <c r="D95" t="n">
-        <v>31992.62597083192</v>
+        <v>32425.34871603033</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3255,13 +3255,13 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1926.784612547919</v>
+        <v>2348.616031059581</v>
       </c>
       <c r="G95" t="n">
-        <v>0.06022589750227422</v>
+        <v>0.07243148104983926</v>
       </c>
       <c r="H95" t="n">
-        <v>0.7707138450191677</v>
+        <v>0.9394464124238324</v>
       </c>
     </row>
     <row r="96">
@@ -3277,7 +3277,7 @@
         <v>2500</v>
       </c>
       <c r="D96" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3285,13 +3285,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3179.397480279243</v>
+        <v>3800.103055798007</v>
       </c>
       <c r="G96" t="n">
-        <v>0.09548657901771641</v>
+        <v>0.1119828315724876</v>
       </c>
       <c r="H96" t="n">
-        <v>1.271758992111697</v>
+        <v>1.520041222319203</v>
       </c>
     </row>
     <row r="97">
@@ -3307,7 +3307,7 @@
         <v>2500</v>
       </c>
       <c r="D97" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3315,13 +3315,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>4024.566820976545</v>
+        <v>4742.401528413311</v>
       </c>
       <c r="G97" t="n">
-        <v>0.1177274677039811</v>
+        <v>0.1357976508461968</v>
       </c>
       <c r="H97" t="n">
-        <v>1.609826728390618</v>
+        <v>1.896960611365324</v>
       </c>
     </row>
     <row r="98">
@@ -3337,7 +3337,7 @@
         <v>2500</v>
       </c>
       <c r="D98" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3345,13 +3345,13 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>4614.879519095678</v>
+        <v>5382.599539236379</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1325704476006089</v>
+        <v>0.1512149512749242</v>
       </c>
       <c r="H98" t="n">
-        <v>1.845951807638271</v>
+        <v>2.153039815694552</v>
       </c>
     </row>
     <row r="99">
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>50920.98531404293</v>
+        <v>51587.00089312953</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3375,10 +3375,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>3958.720690322788</v>
+        <v>4709.540880899585</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0777424212416223</v>
+        <v>0.09129317074772633</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>51892.26753430283</v>
+        <v>52372.19685148841</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2601.22071728232</v>
+        <v>3165.414653608355</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05012732803712636</v>
+        <v>0.06044074611925307</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>50936.09185855123</v>
+        <v>51186.36970132565</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3435,10 +3435,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1238.366026052105</v>
+        <v>1538.618305832842</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02431215236322074</v>
+        <v>0.0300591410332621</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>6250</v>
       </c>
       <c r="D103" t="n">
-        <v>45227.63337631165</v>
+        <v>45971.64969769322</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3493,13 +3493,13 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>4550.386668423471</v>
+        <v>5326.795374964555</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1006107622426862</v>
+        <v>0.1158713122107481</v>
       </c>
       <c r="H103" t="n">
-        <v>0.7280618669477553</v>
+        <v>0.8522872599943287</v>
       </c>
     </row>
     <row r="104">
@@ -3515,7 +3515,7 @@
         <v>6250</v>
       </c>
       <c r="D104" t="n">
-        <v>38267.83734666674</v>
+        <v>39081.58378977926</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3523,13 +3523,13 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>6190.680052054812</v>
+        <v>6992.077167832712</v>
       </c>
       <c r="G104" t="n">
-        <v>0.1617724042248246</v>
+        <v>0.1789097700196403</v>
       </c>
       <c r="H104" t="n">
-        <v>0.99050880832877</v>
+        <v>1.118732346853234</v>
       </c>
     </row>
     <row r="105">
@@ -3545,7 +3545,7 @@
         <v>6250</v>
       </c>
       <c r="D105" t="n">
-        <v>37588.44655492352</v>
+        <v>38329.47428753154</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3553,13 +3553,13 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>7180.160217752898</v>
+        <v>7917.858069003104</v>
       </c>
       <c r="G105" t="n">
-        <v>0.19102040323112</v>
+        <v>0.2065736151142245</v>
       </c>
       <c r="H105" t="n">
-        <v>1.148825634840464</v>
+        <v>1.266857291040497</v>
       </c>
     </row>
     <row r="106">
@@ -3575,7 +3575,7 @@
         <v>6250</v>
       </c>
       <c r="D106" t="n">
-        <v>38060.19957709108</v>
+        <v>38712.65096412196</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3583,13 +3583,13 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>7811.120431857234</v>
+        <v>8473.878027224489</v>
       </c>
       <c r="G106" t="n">
-        <v>0.2052306745274885</v>
+        <v>0.2188917011929226</v>
       </c>
       <c r="H106" t="n">
-        <v>1.249779269097157</v>
+        <v>1.355820484355918</v>
       </c>
     </row>
     <row r="107">
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>36619.10438735906</v>
+        <v>37421.95969801337</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3613,10 +3613,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>6347.500614727731</v>
+        <v>7147.328731295199</v>
       </c>
       <c r="G107" t="n">
-        <v>0.1733384996963195</v>
+        <v>0.1909929033373052</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>34727.07575956952</v>
+        <v>35506.71035882778</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3643,10 +3643,10 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>4503.361387092362</v>
+        <v>5274.795268477888</v>
       </c>
       <c r="G108" t="n">
-        <v>0.1296786812189736</v>
+        <v>0.1485577012111586</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>32475.67843910697</v>
+        <v>32992.15989407467</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3673,10 +3673,10 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2345.758960462585</v>
+        <v>2860.788893695732</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07223125345513458</v>
+        <v>0.08671117328724889</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>2500</v>
       </c>
       <c r="D111" t="n">
-        <v>31992.62597083192</v>
+        <v>32425.34871603033</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1926.678560554649</v>
+        <v>2348.784299206962</v>
       </c>
       <c r="G111" t="n">
-        <v>0.06022258261360683</v>
+        <v>0.0724366704511578</v>
       </c>
       <c r="H111" t="n">
-        <v>0.7706714242218595</v>
+        <v>0.9395137196827849</v>
       </c>
     </row>
     <row r="112">
@@ -3753,7 +3753,7 @@
         <v>2500</v>
       </c>
       <c r="D112" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3761,13 +3761,13 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>3179.229048928643</v>
+        <v>3800.363706741748</v>
       </c>
       <c r="G112" t="n">
-        <v>0.09548152053302934</v>
+        <v>0.1119905125301626</v>
       </c>
       <c r="H112" t="n">
-        <v>1.271691619571457</v>
+        <v>1.520145482696699</v>
       </c>
     </row>
     <row r="113">
@@ -3783,7 +3783,7 @@
         <v>2500</v>
       </c>
       <c r="D113" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3791,13 +3791,13 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>4024.358858224</v>
+        <v>4742.71808804395</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1177213843341867</v>
+        <v>0.1358067154633398</v>
       </c>
       <c r="H113" t="n">
-        <v>1.6097435432896</v>
+        <v>1.89708723521758</v>
       </c>
     </row>
     <row r="114">
@@ -3813,7 +3813,7 @@
         <v>2500</v>
       </c>
       <c r="D114" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3821,13 +3821,13 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>4614.449073753307</v>
+        <v>5381.893084663983</v>
       </c>
       <c r="G114" t="n">
-        <v>0.1325580823088457</v>
+        <v>0.1511951046389328</v>
       </c>
       <c r="H114" t="n">
-        <v>1.845779629501323</v>
+        <v>2.152757233865593</v>
       </c>
     </row>
     <row r="115">
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>33519.43748014412</v>
+        <v>34185.45305923072</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3851,10 +3851,10 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>3364.246194616806</v>
+        <v>4020.2375446331</v>
       </c>
       <c r="G115" t="n">
-        <v>0.1003670242559912</v>
+        <v>0.1176008268097988</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>32258.58031207752</v>
+        <v>32738.50962926309</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3881,10 +3881,10 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2148.274464168147</v>
+        <v>2625.085381035957</v>
       </c>
       <c r="G116" t="n">
-        <v>0.06659544354975346</v>
+        <v>0.08018341124146783</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>31075.43742539147</v>
+        <v>31325.71526816589</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -3911,10 +3911,10 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1010.688528096072</v>
+        <v>1258.976318030889</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0325237104231475</v>
+        <v>0.04018986660809937</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>2500</v>
       </c>
       <c r="D119" t="n">
-        <v>49394.17380473073</v>
+        <v>49826.89654992914</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3969,13 +3969,13 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2293.474359177623</v>
+        <v>2787.165971624142</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04643208262262634</v>
+        <v>0.05593697710695782</v>
       </c>
       <c r="H119" t="n">
-        <v>0.9173897436710491</v>
+        <v>1.114866388649657</v>
       </c>
     </row>
     <row r="120">
@@ -3991,7 +3991,7 @@
         <v>2500</v>
       </c>
       <c r="D120" t="n">
-        <v>52930.48676186892</v>
+        <v>53568.38062509898</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3999,13 +3999,13 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>3816.830525816387</v>
+        <v>4539.014056272004</v>
       </c>
       <c r="G120" t="n">
-        <v>0.07211024797463281</v>
+        <v>0.0847330832723603</v>
       </c>
       <c r="H120" t="n">
-        <v>1.526732210326555</v>
+        <v>1.815605622508802</v>
       </c>
     </row>
     <row r="121">
@@ -4021,7 +4021,7 @@
         <v>2500</v>
       </c>
       <c r="D121" t="n">
-        <v>54046.10749239048</v>
+        <v>54783.2138357853</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4029,13 +4029,13 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>4804.852809903947</v>
+        <v>5629.874752969148</v>
       </c>
       <c r="G121" t="n">
-        <v>0.08890284671436245</v>
+        <v>0.1027664198351872</v>
       </c>
       <c r="H121" t="n">
-        <v>1.921941123961579</v>
+        <v>2.251949901187659</v>
       </c>
     </row>
     <row r="122">
@@ -4051,7 +4051,7 @@
         <v>2500</v>
       </c>
       <c r="D122" t="n">
-        <v>54718.83567006505</v>
+        <v>55503.74792659446</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4059,13 +4059,13 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>5485.621445775178</v>
+        <v>6360.337831787694</v>
       </c>
       <c r="G122" t="n">
-        <v>0.1002510630681455</v>
+        <v>0.1145929431684407</v>
       </c>
       <c r="H122" t="n">
-        <v>2.194248578310071</v>
+        <v>2.544135132715078</v>
       </c>
     </row>
     <row r="123">
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>44484.60506383009</v>
+        <v>45150.6206429167</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -4089,10 +4089,10 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>3736.056299635623</v>
+        <v>4450.956142898657</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0839853763852647</v>
+        <v>0.09858017629702129</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>34205.21207045868</v>
+        <v>34685.14138764425</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -4119,10 +4119,10 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>2193.982686049062</v>
+        <v>2679.767233474583</v>
       </c>
       <c r="G124" t="n">
-        <v>0.06414176534060709</v>
+        <v>0.07725980423505456</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>31241.92428230162</v>
+        <v>31492.20212507604</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -4149,10 +4149,10 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1013.128857499927</v>
+        <v>1262.177443848575</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03242850371012066</v>
+        <v>0.04007904683310638</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4199,7 +4199,7 @@
         <v>2500</v>
       </c>
       <c r="D127" t="n">
-        <v>31992.62597083192</v>
+        <v>32425.34871603033</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -4207,13 +4207,13 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1932.319257149705</v>
+        <v>2355.861023985655</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0603988950113512</v>
+        <v>0.07265491713342692</v>
       </c>
       <c r="H127" t="n">
-        <v>0.7729277028598819</v>
+        <v>0.9423444095942619</v>
       </c>
     </row>
     <row r="128">
@@ -4229,7 +4229,7 @@
         <v>2500</v>
       </c>
       <c r="D128" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -4237,13 +4237,13 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>3188.186615235266</v>
+        <v>3811.32426243409</v>
       </c>
       <c r="G128" t="n">
-        <v>0.09575054237388099</v>
+        <v>0.1123135022080776</v>
       </c>
       <c r="H128" t="n">
-        <v>1.275274646094106</v>
+        <v>1.524529704973636</v>
       </c>
     </row>
     <row r="129">
@@ -4259,7 +4259,7 @@
         <v>6250</v>
       </c>
       <c r="D129" t="n">
-        <v>35833.69506013777</v>
+        <v>36652.74486078155</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -4267,13 +4267,13 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>5634.173013101705</v>
+        <v>6434.350170058578</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1572311480478409</v>
+        <v>0.1755489307689841</v>
       </c>
       <c r="H129" t="n">
-        <v>0.9014676820962728</v>
+        <v>1.029496027209372</v>
       </c>
     </row>
     <row r="130">
@@ -4289,7 +4289,7 @@
         <v>6250</v>
       </c>
       <c r="D130" t="n">
-        <v>37152.09085133347</v>
+        <v>37919.54817642979</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4297,13 +4297,13 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>6907.303306091557</v>
+        <v>7669.886047904882</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1859196386478377</v>
+        <v>0.2022673374750907</v>
       </c>
       <c r="H130" t="n">
-        <v>1.105168528974649</v>
+        <v>1.227181767664781</v>
       </c>
     </row>
     <row r="131">
@@ -4319,7 +4319,7 @@
         <v>3750</v>
       </c>
       <c r="D131" t="n">
-        <v>37126.66325924921</v>
+        <v>37896.30314513999</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -4327,13 +4327,13 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>6873.685826580483</v>
+        <v>7641.555992863575</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1851414919402452</v>
+        <v>0.2016438374898203</v>
       </c>
       <c r="H131" t="n">
-        <v>1.832982887088129</v>
+        <v>2.03774826476362</v>
       </c>
     </row>
     <row r="132">
@@ -4349,7 +4349,7 @@
         <v>3750</v>
       </c>
       <c r="D132" t="n">
-        <v>37106.15782060949</v>
+        <v>37877.52026173257</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -4357,13 +4357,13 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>6846.70920209525</v>
+        <v>7618.737454942423</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1845167919350694</v>
+        <v>0.2011414000255869</v>
       </c>
       <c r="H132" t="n">
-        <v>1.825789120558734</v>
+        <v>2.031663321317979</v>
       </c>
     </row>
     <row r="133">
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>35344.07478351054</v>
+        <v>36154.01580598178</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -4387,10 +4387,10 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>5111.927092472449</v>
+        <v>5913.064561435232</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1446332128874222</v>
+        <v>0.163552082102506</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>33188.68572820453</v>
+        <v>33812.16608193859</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -4417,10 +4417,10 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>3040.973421184101</v>
+        <v>3659.980813607012</v>
       </c>
       <c r="G134" t="n">
-        <v>0.09162681059707677</v>
+        <v>0.1082444941485739</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -4439,7 +4439,7 @@
         <v>2500</v>
       </c>
       <c r="D135" t="n">
-        <v>33248.96245052692</v>
+        <v>33880.53923784704</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -4447,13 +4447,13 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>3120.107925732986</v>
+        <v>3740.856508753792</v>
       </c>
       <c r="G135" t="n">
-        <v>0.09384076060645734</v>
+        <v>0.110413133701691</v>
       </c>
       <c r="H135" t="n">
-        <v>1.248043170293194</v>
+        <v>1.496342603501517</v>
       </c>
     </row>
     <row r="136">
@@ -4469,7 +4469,7 @@
         <v>2500</v>
       </c>
       <c r="D136" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -4477,13 +4477,13 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>3182.164045365186</v>
+        <v>3804.393157355289</v>
       </c>
       <c r="G136" t="n">
-        <v>0.09556966703591016</v>
+        <v>0.1121092538597424</v>
       </c>
       <c r="H136" t="n">
-        <v>1.272865618146074</v>
+        <v>1.521757262942116</v>
       </c>
     </row>
     <row r="137">
@@ -4499,7 +4499,7 @@
         <v>2500</v>
       </c>
       <c r="D137" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -4507,13 +4507,13 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>4027.982630617099</v>
+        <v>4747.611693115632</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1178273876797273</v>
+        <v>0.1359468427952247</v>
       </c>
       <c r="H137" t="n">
-        <v>1.61119305224684</v>
+        <v>1.899044677246253</v>
       </c>
     </row>
     <row r="138">
@@ -4529,7 +4529,7 @@
         <v>2500</v>
       </c>
       <c r="D138" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -4537,13 +4537,13 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>4616.964142146291</v>
+        <v>5385.460356990327</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1326303320265738</v>
+        <v>0.1512953210691317</v>
       </c>
       <c r="H138" t="n">
-        <v>1.846785656858516</v>
+        <v>2.154184142796131</v>
       </c>
     </row>
     <row r="139">
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>50920.98531404293</v>
+        <v>51587.00089312953</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -4567,10 +4567,10 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>3959.925301726315</v>
+        <v>4711.238792269928</v>
       </c>
       <c r="G139" t="n">
-        <v>0.07776607772423155</v>
+        <v>0.09132608429844545</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>51892.26753430283</v>
+        <v>52372.19685148841</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -4597,10 +4597,10 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2602.001862065369</v>
+        <v>3166.545174059995</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05014238123908044</v>
+        <v>0.06046233239058794</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>50936.09185855123</v>
+        <v>51186.36970132565</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1238.747882384904</v>
+        <v>1539.185841601398</v>
       </c>
       <c r="G141" t="n">
-        <v>0.02431964913650792</v>
+        <v>0.03007022866795602</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -4901,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>31992.62597083192</v>
+        <v>32425.34871603033</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>33519.43748014412</v>
+        <v>34185.45305923072</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>32258.58031207752</v>
+        <v>32738.50962926309</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>31075.43742539147</v>
+        <v>31325.71526816589</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>31992.62597083192</v>
+        <v>32425.34871603033</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>6000</v>
       </c>
       <c r="D163" t="n">
-        <v>50920.98531404293</v>
+        <v>51587.00089312953</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -5245,13 +5245,13 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>17202.07239992516</v>
+        <v>17169.49562063171</v>
       </c>
       <c r="G163" t="n">
-        <v>0.3378189226668635</v>
+        <v>0.3328260089436287</v>
       </c>
       <c r="H163" t="n">
-        <v>2.867012066654194</v>
+        <v>2.861582603438618</v>
       </c>
     </row>
     <row r="164">
@@ -5267,7 +5267,7 @@
         <v>6000</v>
       </c>
       <c r="D164" t="n">
-        <v>51892.26753430283</v>
+        <v>52372.19685148841</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -5275,13 +5275,13 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>19361.0144341889</v>
+        <v>19328.97804107735</v>
       </c>
       <c r="G164" t="n">
-        <v>0.3731001814748317</v>
+        <v>0.3690694529368024</v>
       </c>
       <c r="H164" t="n">
-        <v>3.226835739031484</v>
+        <v>3.221496340179558</v>
       </c>
     </row>
     <row r="165">
@@ -5297,7 +5297,7 @@
         <v>6000</v>
       </c>
       <c r="D165" t="n">
-        <v>50936.09185855123</v>
+        <v>51186.36970132565</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -5305,13 +5305,13 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>19531.30534768461</v>
+        <v>19489.06364627099</v>
       </c>
       <c r="G165" t="n">
-        <v>0.3834472696084097</v>
+        <v>0.3807471356142347</v>
       </c>
       <c r="H165" t="n">
-        <v>3.255217557947436</v>
+        <v>3.248177274378498</v>
       </c>
     </row>
     <row r="166">
@@ -5335,13 +5335,13 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>19519.09195040886</v>
+        <v>19465.1578895619</v>
       </c>
       <c r="G166" t="n">
-        <v>0.3911009604769351</v>
+        <v>0.3900202922238597</v>
       </c>
       <c r="H166" t="n">
-        <v>3.253181991734809</v>
+        <v>3.24419298159365</v>
       </c>
     </row>
     <row r="167">
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>42957.7935545179</v>
+        <v>43390.51629971631</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -5365,10 +5365,10 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>10778.58382593148</v>
+        <v>10753.21764267058</v>
       </c>
       <c r="G167" t="n">
-        <v>0.2509110206568765</v>
+        <v>0.2478241459122921</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>35243.43129802477</v>
+        <v>35881.32516125483</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -5395,10 +5395,10 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>1932.182112884598</v>
+        <v>1937.291233789916</v>
       </c>
       <c r="G168" t="n">
-        <v>0.05482389318297983</v>
+        <v>0.05399163004943394</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>36000.18191704792</v>
+        <v>36819.2317176917</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -5425,10 +5425,10 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>157.8479462004737</v>
+        <v>159.1829131883172</v>
       </c>
       <c r="G169" t="n">
-        <v>0.004384643015532226</v>
+        <v>0.004323363246925916</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>37152.09085133347</v>
+        <v>37919.54817642979</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>37126.66325924921</v>
+        <v>37896.30314513999</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>37106.15782060949</v>
+        <v>37877.52026173257</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>35344.07478351054</v>
+        <v>36154.01580598178</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>33188.68572820453</v>
+        <v>33812.16608193859</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>33248.96245052692</v>
+        <v>33880.53923784704</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>33519.43748014412</v>
+        <v>34185.45305923072</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>32258.58031207752</v>
+        <v>32738.50962926309</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>31075.43742539147</v>
+        <v>31325.71526816589</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>6000</v>
       </c>
       <c r="D183" t="n">
-        <v>49394.17380473073</v>
+        <v>49826.89654992914</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -5819,13 +5819,13 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>17094.38630017733</v>
+        <v>17046.61083454929</v>
       </c>
       <c r="G183" t="n">
-        <v>0.3460810250163575</v>
+        <v>0.3421166481333571</v>
       </c>
       <c r="H183" t="n">
-        <v>2.849064383362888</v>
+        <v>2.841101805758216</v>
       </c>
     </row>
     <row r="184">
@@ -5841,7 +5841,7 @@
         <v>6000</v>
       </c>
       <c r="D184" t="n">
-        <v>52930.48676186892</v>
+        <v>53568.38062509898</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -5849,13 +5849,13 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>19441.97891034682</v>
+        <v>19427.34749292147</v>
       </c>
       <c r="G184" t="n">
-        <v>0.3673115457602933</v>
+        <v>0.3626644536612884</v>
       </c>
       <c r="H184" t="n">
-        <v>3.240329818391137</v>
+        <v>3.237891248820245</v>
       </c>
     </row>
     <row r="185">
@@ -5871,7 +5871,7 @@
         <v>6000</v>
       </c>
       <c r="D185" t="n">
-        <v>54046.10749239048</v>
+        <v>54783.2138357853</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -5879,13 +5879,13 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>19763.00621325482</v>
+        <v>19761.73082744735</v>
       </c>
       <c r="G185" t="n">
-        <v>0.3656693725082308</v>
+        <v>0.3607260225127329</v>
       </c>
       <c r="H185" t="n">
-        <v>3.293834368875803</v>
+        <v>3.293621804574558</v>
       </c>
     </row>
     <row r="186">
@@ -5901,7 +5901,7 @@
         <v>6000</v>
       </c>
       <c r="D186" t="n">
-        <v>54718.83567006505</v>
+        <v>55503.74792659446</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -5909,13 +5909,13 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>19861.91188660339</v>
+        <v>19866.4691035663</v>
       </c>
       <c r="G186" t="n">
-        <v>0.3629812594398681</v>
+        <v>0.3579302271594408</v>
       </c>
       <c r="H186" t="n">
-        <v>3.310318647767232</v>
+        <v>3.311078183927716</v>
       </c>
     </row>
     <row r="187">
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>44484.60506383009</v>
+        <v>45150.6206429167</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -5939,10 +5939,10 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>10891.85801500691</v>
+        <v>10882.35431923545</v>
       </c>
       <c r="G187" t="n">
-        <v>0.2448455594779002</v>
+        <v>0.2410233605712946</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>34205.21207045868</v>
+        <v>34685.14138764425</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -5969,10 +5969,10 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1912.195978798512</v>
+        <v>1914.271650922338</v>
       </c>
       <c r="G188" t="n">
-        <v>0.05590364342310219</v>
+        <v>0.05518996245476603</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -5991,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>31241.92428230162</v>
+        <v>31492.20212507604</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -5999,10 +5999,10 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>149.3922740085677</v>
+        <v>149.8060521011111</v>
       </c>
       <c r="G189" t="n">
-        <v>0.004781788492240781</v>
+        <v>0.004756925270139375</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>31992.62597083192</v>
+        <v>32425.34871603033</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="D193" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="D195" t="n">
-        <v>35356.47404439229</v>
+        <v>36166.8144104372</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>35751.41879538076</v>
+        <v>36569.91482581294</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>36043.0481980255</v>
+        <v>36861.65307556958</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>36261.87147054533</v>
+        <v>37077.0742231914</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="D199" t="n">
-        <v>35822.57008692643</v>
+        <v>36641.56872710963</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>35434.23950376685</v>
+        <v>36246.889011486</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>35097.74058420179</v>
+        <v>35898.00278020033</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="D202" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>6000</v>
       </c>
       <c r="D203" t="n">
-        <v>50920.98531404293</v>
+        <v>51587.00089312953</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -6393,13 +6393,13 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>17194.93518954294</v>
+        <v>17163.2825089348</v>
       </c>
       <c r="G203" t="n">
-        <v>0.3376787602104969</v>
+        <v>0.3327055694610199</v>
       </c>
       <c r="H203" t="n">
-        <v>2.865822531590489</v>
+        <v>2.860547084822467</v>
       </c>
     </row>
     <row r="204">
@@ -6415,7 +6415,7 @@
         <v>6000</v>
       </c>
       <c r="D204" t="n">
-        <v>51892.26753430283</v>
+        <v>52372.19685148841</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -6423,13 +6423,13 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>19353.08681983232</v>
+        <v>19322.04896728038</v>
       </c>
       <c r="G204" t="n">
-        <v>0.3729474108457327</v>
+        <v>0.3689371485040397</v>
       </c>
       <c r="H204" t="n">
-        <v>3.225514469972052</v>
+        <v>3.22034149454673</v>
       </c>
     </row>
     <row r="205">
@@ -6445,7 +6445,7 @@
         <v>6000</v>
       </c>
       <c r="D205" t="n">
-        <v>50936.09185855123</v>
+        <v>51186.36970132565</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -6453,13 +6453,13 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>19523.09364296494</v>
+        <v>19481.84824728127</v>
       </c>
       <c r="G205" t="n">
-        <v>0.3832860537706797</v>
+        <v>0.3806061723259253</v>
       </c>
       <c r="H205" t="n">
-        <v>3.253848940494157</v>
+        <v>3.246974707880212</v>
       </c>
     </row>
     <row r="206">
@@ -6483,13 +6483,13 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>19517.79210158423</v>
+        <v>19463.7687604028</v>
       </c>
       <c r="G206" t="n">
-        <v>0.3910749156114732</v>
+        <v>0.3899924584624466</v>
       </c>
       <c r="H206" t="n">
-        <v>3.252965350264037</v>
+        <v>3.243961460067134</v>
       </c>
     </row>
     <row r="207">
@@ -6505,7 +6505,7 @@
         <v>0</v>
       </c>
       <c r="D207" t="n">
-        <v>42957.7935545179</v>
+        <v>43390.51629971631</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -6513,10 +6513,10 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>10777.75998986167</v>
+        <v>10752.34744198472</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2508918428546285</v>
+        <v>0.2478040908228377</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="D208" t="n">
-        <v>35243.43129802477</v>
+        <v>35881.32516125483</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -6543,10 +6543,10 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>1932.001826317348</v>
+        <v>1937.101286957402</v>
       </c>
       <c r="G208" t="n">
-        <v>0.05481877771718634</v>
+        <v>0.05398633629755437</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -6565,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>34351.93991614087</v>
+        <v>35089.04625953569</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -6573,10 +6573,10 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>154.8946853913214</v>
+        <v>156.1052687687068</v>
       </c>
       <c r="G209" t="n">
-        <v>0.004509052058470252</v>
+        <v>0.004448831912217737</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -6595,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="D210" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="D211" t="n">
-        <v>33519.43748014412</v>
+        <v>34185.45305923072</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="D212" t="n">
-        <v>32258.58031207752</v>
+        <v>32738.50962926309</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="D213" t="n">
-        <v>31075.43742539147</v>
+        <v>31325.71526816589</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="D215" t="n">
-        <v>31992.62597083192</v>
+        <v>32425.34871603033</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="D217" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="D219" t="n">
-        <v>33519.43748014412</v>
+        <v>34185.45305923072</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="D220" t="n">
-        <v>32258.58031207752</v>
+        <v>32738.50962926309</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="D221" t="n">
-        <v>33605.27148211796</v>
+        <v>34281.55906684759</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>34511.88363905974</v>
+        <v>35276.33447258985</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>6000</v>
       </c>
       <c r="D223" t="n">
-        <v>53851.25695645597</v>
+        <v>54661.04711302234</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -6967,13 +6967,13 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>17468.6840516304</v>
+        <v>17452.46094834915</v>
       </c>
       <c r="G223" t="n">
-        <v>0.3243876752172292</v>
+        <v>0.3192851558855577</v>
       </c>
       <c r="H223" t="n">
-        <v>2.911447341938399</v>
+        <v>2.908743491391525</v>
       </c>
     </row>
     <row r="224">
@@ -6989,7 +6989,7 @@
         <v>6000</v>
       </c>
       <c r="D224" t="n">
-        <v>57127.94473427413</v>
+        <v>57860.84312252654</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -6997,13 +6997,13 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>19805.50373557104</v>
+        <v>19798.63381012755</v>
       </c>
       <c r="G224" t="n">
-        <v>0.3466867892358931</v>
+        <v>0.3421767250816208</v>
       </c>
       <c r="H224" t="n">
-        <v>3.300917289261841</v>
+        <v>3.299772301687926</v>
       </c>
     </row>
     <row r="225">
@@ -7019,7 +7019,7 @@
         <v>6000</v>
       </c>
       <c r="D225" t="n">
-        <v>56827.21772433855</v>
+        <v>57609.43062770835</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -7027,13 +7027,13 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>20017.23567488307</v>
+        <v>20018.93686169589</v>
       </c>
       <c r="G225" t="n">
-        <v>0.3522473292988595</v>
+        <v>0.3474940933033177</v>
       </c>
       <c r="H225" t="n">
-        <v>3.336205945813845</v>
+        <v>3.336489476949315</v>
       </c>
     </row>
     <row r="226">
@@ -7049,7 +7049,7 @@
         <v>6000</v>
       </c>
       <c r="D226" t="n">
-        <v>56373.51765206664</v>
+        <v>57182.74654131432</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -7057,13 +7057,13 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>20005.21016649005</v>
+        <v>20011.95372735548</v>
       </c>
       <c r="G226" t="n">
-        <v>0.3548689349130348</v>
+        <v>0.349964892170699</v>
       </c>
       <c r="H226" t="n">
-        <v>3.334201694415009</v>
+        <v>3.335325621225913</v>
       </c>
     </row>
     <row r="227">
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>45501.38872761069</v>
+        <v>46267.67188127172</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -7087,10 +7087,10 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>10969.18409948782</v>
+        <v>10966.87313006432</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2410736112946726</v>
+        <v>0.237031012889661</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -7109,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>34205.21207045868</v>
+        <v>34685.14138764425</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -7117,10 +7117,10 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>1912.523858310749</v>
+        <v>1914.699577549495</v>
       </c>
       <c r="G228" t="n">
-        <v>0.05591322908249119</v>
+        <v>0.05520229991715014</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="D229" t="n">
-        <v>31241.92428230162</v>
+        <v>31492.20212507604</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>149.4203021114886</v>
+        <v>149.8429238912305</v>
       </c>
       <c r="G229" t="n">
-        <v>0.004782685623373539</v>
+        <v>0.00475809609299809</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -7197,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="D231" t="n">
-        <v>31992.62597083192</v>
+        <v>32425.34871603033</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="D232" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="D233" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>0</v>
       </c>
       <c r="D234" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>33519.43748014412</v>
+        <v>34185.45305923072</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="D236" t="n">
-        <v>32258.58031207752</v>
+        <v>32738.50962926309</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>31075.43742539147</v>
+        <v>31325.71526816589</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="D239" t="n">
-        <v>31992.62597083192</v>
+        <v>32425.34871603033</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="D240" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="D242" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>6000</v>
       </c>
       <c r="D243" t="n">
-        <v>50920.98531404293</v>
+        <v>51587.00089312953</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -7541,13 +7541,13 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>17203.15350490828</v>
+        <v>17171.0246620588</v>
       </c>
       <c r="G243" t="n">
-        <v>0.3378401536971835</v>
+        <v>0.3328556489963671</v>
       </c>
       <c r="H243" t="n">
-        <v>2.867192250818047</v>
+        <v>2.861837443676467</v>
       </c>
     </row>
     <row r="244">
@@ -7563,7 +7563,7 @@
         <v>6000</v>
       </c>
       <c r="D244" t="n">
-        <v>51892.26753430283</v>
+        <v>52372.19685148841</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -7571,13 +7571,13 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>19362.21525764859</v>
+        <v>19330.68327295754</v>
       </c>
       <c r="G244" t="n">
-        <v>0.3731233221760719</v>
+        <v>0.3691020128060212</v>
       </c>
       <c r="H244" t="n">
-        <v>3.227035876274766</v>
+        <v>3.221780545492923</v>
       </c>
     </row>
     <row r="245">
@@ -7593,7 +7593,7 @@
         <v>6000</v>
       </c>
       <c r="D245" t="n">
-        <v>50936.09185855123</v>
+        <v>51186.36970132565</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -7601,13 +7601,13 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>19532.54921903096</v>
+        <v>19490.83936823857</v>
       </c>
       <c r="G245" t="n">
-        <v>0.3834716898436683</v>
+        <v>0.3807818269193212</v>
       </c>
       <c r="H245" t="n">
-        <v>3.255424869838493</v>
+        <v>3.248473228039762</v>
       </c>
     </row>
     <row r="246">
@@ -7631,13 +7631,13 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>19505.20573808155</v>
+        <v>19450.39324529231</v>
       </c>
       <c r="G246" t="n">
-        <v>0.3908227246352068</v>
+        <v>0.3897244553801372</v>
       </c>
       <c r="H246" t="n">
-        <v>3.250867623013592</v>
+        <v>3.241732207548718</v>
       </c>
     </row>
     <row r="247">
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="D247" t="n">
-        <v>45227.63337631165</v>
+        <v>45971.64969769322</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -7661,10 +7661,10 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>10929.04713893547</v>
+        <v>10926.09853268382</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2416453465075547</v>
+        <v>0.2376703599834503</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -7683,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="D248" t="n">
-        <v>38267.83734666674</v>
+        <v>39081.58378977926</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -7691,10 +7691,10 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>1992.74565981423</v>
+        <v>2000.678611522757</v>
       </c>
       <c r="G248" t="n">
-        <v>0.05207364194015016</v>
+        <v>0.05119236268121715</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -7713,7 +7713,7 @@
         <v>0</v>
       </c>
       <c r="D249" t="n">
-        <v>37588.44655492352</v>
+        <v>38329.47428753154</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -7721,10 +7721,10 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>160.4691561420822</v>
+        <v>161.586600280425</v>
       </c>
       <c r="G249" t="n">
-        <v>0.004269108485438675</v>
+        <v>0.004215727016453983</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -7743,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>38060.19957709108</v>
+        <v>38712.65096412196</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="D251" t="n">
-        <v>36619.10438735906</v>
+        <v>37421.95969801337</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="D252" t="n">
-        <v>34727.07575956952</v>
+        <v>35506.71035882778</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="D253" t="n">
-        <v>32475.67843910697</v>
+        <v>32992.15989407467</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="D255" t="n">
-        <v>31992.62597083192</v>
+        <v>32425.34871603033</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="D256" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>0</v>
       </c>
       <c r="D257" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="D258" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="D259" t="n">
-        <v>33519.43748014412</v>
+        <v>34185.45305923072</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>0</v>
       </c>
       <c r="D260" t="n">
-        <v>32258.58031207752</v>
+        <v>32738.50962926309</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="D261" t="n">
-        <v>31075.43742539147</v>
+        <v>31325.71526816589</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>6000</v>
       </c>
       <c r="D263" t="n">
-        <v>49394.17380473073</v>
+        <v>49826.89654992914</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -8115,13 +8115,13 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>17084.92890205918</v>
+        <v>17035.56713582567</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3458895571287574</v>
+        <v>0.3418950068213689</v>
       </c>
       <c r="H263" t="n">
-        <v>2.847488150343196</v>
+        <v>2.839261189304278</v>
       </c>
     </row>
     <row r="264">
@@ -8137,7 +8137,7 @@
         <v>6000</v>
       </c>
       <c r="D264" t="n">
-        <v>52930.48676186892</v>
+        <v>53568.38062509898</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -8145,13 +8145,13 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>19432.05309206054</v>
+        <v>19415.79290052451</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3671240202170099</v>
+        <v>0.3624487556644079</v>
       </c>
       <c r="H264" t="n">
-        <v>3.238675515343424</v>
+        <v>3.235965483420751</v>
       </c>
     </row>
     <row r="265">
@@ -8167,7 +8167,7 @@
         <v>6000</v>
       </c>
       <c r="D265" t="n">
-        <v>54046.10749239048</v>
+        <v>54783.2138357853</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -8175,13 +8175,13 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>19753.18920276384</v>
+        <v>19750.31970875541</v>
       </c>
       <c r="G265" t="n">
-        <v>0.3654877311107932</v>
+        <v>0.3605177266152679</v>
       </c>
       <c r="H265" t="n">
-        <v>3.29219820046064</v>
+        <v>3.291719951459235</v>
       </c>
     </row>
     <row r="266">
@@ -8197,7 +8197,7 @@
         <v>6000</v>
       </c>
       <c r="D266" t="n">
-        <v>54718.83567006505</v>
+        <v>55503.74792659446</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -8205,13 +8205,13 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>19857.65767061108</v>
+        <v>19862.58410022547</v>
       </c>
       <c r="G266" t="n">
-        <v>0.3629035126102762</v>
+        <v>0.3578602318260453</v>
       </c>
       <c r="H266" t="n">
-        <v>3.309609611768514</v>
+        <v>3.310430683370913</v>
       </c>
     </row>
     <row r="267">
@@ -8227,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="D267" t="n">
-        <v>44484.60506383009</v>
+        <v>45150.6206429167</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -8235,10 +8235,10 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>10888.9410880207</v>
+        <v>10879.69006232364</v>
       </c>
       <c r="G267" t="n">
-        <v>0.2447799878721271</v>
+        <v>0.2409643523699925</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -8257,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="D268" t="n">
-        <v>34205.21207045868</v>
+        <v>34685.14138764425</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -8265,10 +8265,10 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>1911.524624802859</v>
+        <v>1913.656025167242</v>
       </c>
       <c r="G268" t="n">
-        <v>0.05588401618049743</v>
+        <v>0.05517221347838979</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -8287,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="D269" t="n">
-        <v>31241.92428230162</v>
+        <v>31492.20212507604</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -8295,10 +8295,10 @@
         </is>
       </c>
       <c r="F269" t="n">
-        <v>149.3348875222109</v>
+        <v>149.7530103589686</v>
       </c>
       <c r="G269" t="n">
-        <v>0.004779951649995142</v>
+        <v>0.004755240988362829</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -8345,7 +8345,7 @@
         <v>0</v>
       </c>
       <c r="D271" t="n">
-        <v>31992.62597083192</v>
+        <v>32425.34871603033</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="D272" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="D273" t="n">
-        <v>35833.69506013777</v>
+        <v>36652.74486078155</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="D274" t="n">
-        <v>37152.09085133347</v>
+        <v>37919.54817642979</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>0</v>
       </c>
       <c r="D275" t="n">
-        <v>37126.66325924921</v>
+        <v>37896.30314513999</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="D276" t="n">
-        <v>37106.15782060949</v>
+        <v>37877.52026173257</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>0</v>
       </c>
       <c r="D277" t="n">
-        <v>35344.07478351054</v>
+        <v>36154.01580598178</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="D278" t="n">
-        <v>33188.68572820453</v>
+        <v>33812.16608193859</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>0</v>
       </c>
       <c r="D279" t="n">
-        <v>33248.96245052692</v>
+        <v>33880.53923784704</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="D280" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="D281" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="D282" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>6000</v>
       </c>
       <c r="D283" t="n">
-        <v>50920.98531404293</v>
+        <v>51587.00089312953</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -8689,13 +8689,13 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>17208.38830587301</v>
+        <v>17177.21526083511</v>
       </c>
       <c r="G283" t="n">
-        <v>0.3379429561259353</v>
+        <v>0.3329756520721252</v>
       </c>
       <c r="H283" t="n">
-        <v>2.868064717645501</v>
+        <v>2.862869210139185</v>
       </c>
     </row>
     <row r="284">
@@ -8711,7 +8711,7 @@
         <v>6000</v>
       </c>
       <c r="D284" t="n">
-        <v>51892.26753430283</v>
+        <v>52372.19685148841</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -8719,13 +8719,13 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>19368.02971750445</v>
+        <v>19337.58718134729</v>
       </c>
       <c r="G284" t="n">
-        <v>0.3732353708517636</v>
+        <v>0.3692338367279646</v>
       </c>
       <c r="H284" t="n">
-        <v>3.228004952917408</v>
+        <v>3.222931196891215</v>
       </c>
     </row>
     <row r="285">
@@ -8741,7 +8741,7 @@
         <v>6000</v>
       </c>
       <c r="D285" t="n">
-        <v>50936.09185855123</v>
+        <v>51186.36970132565</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -8749,13 +8749,13 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>19538.57217788004</v>
+        <v>19498.02877217248</v>
       </c>
       <c r="G285" t="n">
-        <v>0.3835899352494174</v>
+        <v>0.3809222823564984</v>
       </c>
       <c r="H285" t="n">
-        <v>3.25642869631334</v>
+        <v>3.249671462028746</v>
       </c>
     </row>
     <row r="286">
@@ -8779,13 +8779,13 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>19518.48820009215</v>
+        <v>19462.85172099361</v>
       </c>
       <c r="G286" t="n">
-        <v>0.3910888632272601</v>
+        <v>0.3899740838887399</v>
       </c>
       <c r="H286" t="n">
-        <v>3.253081366682024</v>
+        <v>3.243808620165602</v>
       </c>
     </row>
     <row r="287">
@@ -8809,10 +8809,10 @@
         </is>
       </c>
       <c r="F287" t="n">
-        <v>10648.35136723495</v>
+        <v>10595.48319588671</v>
       </c>
       <c r="G287" t="n">
-        <v>0.2599367217400463</v>
+        <v>0.2586461577202548</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -8839,10 +8839,10 @@
         </is>
       </c>
       <c r="F288" t="n">
-        <v>1864.941642024153</v>
+        <v>1857.819024832822</v>
       </c>
       <c r="G288" t="n">
-        <v>0.05837678463661158</v>
+        <v>0.05815383101679961</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -8869,10 +8869,10 @@
         </is>
       </c>
       <c r="F289" t="n">
-        <v>147.3647002979105</v>
+        <v>147.3224302035474</v>
       </c>
       <c r="G289" t="n">
-        <v>0.004885046806971959</v>
+        <v>0.004883645580022212</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="D295" t="n">
-        <v>31992.62597083192</v>
+        <v>32425.34871603033</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -9049,10 +9049,10 @@
         </is>
       </c>
       <c r="F295" t="n">
-        <v>30067.86425902517</v>
+        <v>30079.01788113294</v>
       </c>
       <c r="G295" t="n">
-        <v>0.9398373327165587</v>
+        <v>0.9276389945580623</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="D296" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -9079,10 +9079,10 @@
         </is>
       </c>
       <c r="F296" t="n">
-        <v>30120.61494213977</v>
+        <v>30138.13032227858</v>
       </c>
       <c r="G296" t="n">
-        <v>0.9046099132223734</v>
+        <v>0.8881214857160435</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="D297" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -9109,10 +9109,10 @@
         </is>
       </c>
       <c r="F297" t="n">
-        <v>30164.85328877956</v>
+        <v>30184.45727663952</v>
       </c>
       <c r="G297" t="n">
-        <v>0.8823885772850529</v>
+        <v>0.8643254616203816</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -9131,7 +9131,7 @@
         <v>0</v>
       </c>
       <c r="D298" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -9139,10 +9139,10 @@
         </is>
       </c>
       <c r="F298" t="n">
-        <v>30199.16317011665</v>
+        <v>30216.66036665585</v>
       </c>
       <c r="G298" t="n">
-        <v>0.867523531667563</v>
+        <v>0.84888552301311</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="D299" t="n">
-        <v>33519.43748014412</v>
+        <v>34185.45305923072</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -9169,10 +9169,10 @@
         </is>
       </c>
       <c r="F299" t="n">
-        <v>30157.33941836326</v>
+        <v>30167.44418604364</v>
       </c>
       <c r="G299" t="n">
-        <v>0.8996970619279497</v>
+        <v>0.8824643667519819</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="D300" t="n">
-        <v>32258.58031207752</v>
+        <v>32738.50962926309</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -9199,10 +9199,10 @@
         </is>
       </c>
       <c r="F300" t="n">
-        <v>30111.72901951689</v>
+        <v>30114.94117181114</v>
       </c>
       <c r="G300" t="n">
-        <v>0.9334486740646533</v>
+        <v>0.9198629232924246</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -9221,7 +9221,7 @@
         <v>0</v>
       </c>
       <c r="D301" t="n">
-        <v>31075.43742539147</v>
+        <v>31325.71526816589</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -9229,10 +9229,10 @@
         </is>
       </c>
       <c r="F301" t="n">
-        <v>30065.44287377707</v>
+        <v>30067.49807114664</v>
       </c>
       <c r="G301" t="n">
-        <v>0.9674986215708378</v>
+        <v>0.959834366550031</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -9281,7 +9281,7 @@
         <v>0</v>
       </c>
       <c r="D303" t="n">
-        <v>31992.62597083192</v>
+        <v>32425.34871603033</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -9289,10 +9289,10 @@
         </is>
       </c>
       <c r="F303" t="n">
-        <v>30065.94741027727</v>
+        <v>30076.56441682337</v>
       </c>
       <c r="G303" t="n">
-        <v>0.9397774173863931</v>
+        <v>0.9275633295488421</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -9311,7 +9311,7 @@
         <v>0</v>
       </c>
       <c r="D304" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -9319,10 +9319,10 @@
         </is>
       </c>
       <c r="F304" t="n">
-        <v>30117.57049071497</v>
+        <v>30134.32969613192</v>
       </c>
       <c r="G304" t="n">
-        <v>0.9045184794669707</v>
+        <v>0.8880094874698374</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -9341,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="D305" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -9349,10 +9349,10 @@
         </is>
       </c>
       <c r="F305" t="n">
-        <v>30161.09420100672</v>
+        <v>30179.84131458159</v>
       </c>
       <c r="G305" t="n">
-        <v>0.8822786156658132</v>
+        <v>0.8641932845366601</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -9371,7 +9371,7 @@
         <v>0</v>
       </c>
       <c r="D306" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -9379,10 +9379,10 @@
         </is>
       </c>
       <c r="F306" t="n">
-        <v>30196.32212465729</v>
+        <v>30213.79037027603</v>
       </c>
       <c r="G306" t="n">
-        <v>0.8674419176911543</v>
+        <v>0.8488048953610673</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="D307" t="n">
-        <v>50920.98531404293</v>
+        <v>51587.00089312953</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -9409,10 +9409,10 @@
         </is>
       </c>
       <c r="F307" t="n">
-        <v>29760.44100333787</v>
+        <v>29708.38376570381</v>
       </c>
       <c r="G307" t="n">
-        <v>0.5844435416910632</v>
+        <v>0.5758889497617691</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="D308" t="n">
-        <v>51892.26753430283</v>
+        <v>52372.19685148841</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -9439,10 +9439,10 @@
         </is>
       </c>
       <c r="F308" t="n">
-        <v>29930.19370770171</v>
+        <v>29878.0833898699</v>
       </c>
       <c r="G308" t="n">
-        <v>0.5767755993302214</v>
+        <v>0.5704951326482454</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="D309" t="n">
-        <v>50936.09185855123</v>
+        <v>51186.36970132565</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -9469,10 +9469,10 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>30166.49934641107</v>
+        <v>30158.82792575674</v>
       </c>
       <c r="G309" t="n">
-        <v>0.5922421262742927</v>
+        <v>0.5891964619044994</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -9499,10 +9499,10 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>30388.9725212456</v>
+        <v>30442.90658209255</v>
       </c>
       <c r="G310" t="n">
-        <v>0.608899039523065</v>
+        <v>0.6099797077761404</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -9521,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="D311" t="n">
-        <v>42957.7935545179</v>
+        <v>43390.51629971631</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -9529,10 +9529,10 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>30021.84594165976</v>
+        <v>30013.08553352784</v>
       </c>
       <c r="G311" t="n">
-        <v>0.6988684347476767</v>
+        <v>0.6916968981473968</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="D312" t="n">
-        <v>35243.43129802477</v>
+        <v>35881.32516125483</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -9559,10 +9559,10 @@
         </is>
       </c>
       <c r="F312" t="n">
-        <v>30068.87312217823</v>
+        <v>30071.00177772144</v>
       </c>
       <c r="G312" t="n">
-        <v>0.8531766634159554</v>
+        <v>0.8380683166683193</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -9581,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="D313" t="n">
-        <v>36000.18191704792</v>
+        <v>36819.2317176917</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -9589,10 +9589,10 @@
         </is>
       </c>
       <c r="F313" t="n">
-        <v>30213.01400754795</v>
+        <v>30232.09158946713</v>
       </c>
       <c r="G313" t="n">
-        <v>0.8392461481768387</v>
+        <v>0.8210951228224723</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -9611,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="D314" t="n">
-        <v>37152.09085133347</v>
+        <v>37919.54817642979</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -9619,10 +9619,10 @@
         </is>
       </c>
       <c r="F314" t="n">
-        <v>30248.12652608015</v>
+        <v>30253.50637806188</v>
       </c>
       <c r="G314" t="n">
-        <v>0.8141702346476275</v>
+        <v>0.7978340416214925</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="D315" t="n">
-        <v>37126.66325924921</v>
+        <v>37896.30314513999</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -9649,10 +9649,10 @@
         </is>
       </c>
       <c r="F315" t="n">
-        <v>30256.30333739151</v>
+        <v>30258.58019443852</v>
       </c>
       <c r="G315" t="n">
-        <v>0.8149480907055088</v>
+        <v>0.7984573080532533</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -9671,7 +9671,7 @@
         <v>0</v>
       </c>
       <c r="D316" t="n">
-        <v>37106.15782060949</v>
+        <v>37877.52026173257</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -9679,10 +9679,10 @@
         </is>
       </c>
       <c r="F316" t="n">
-        <v>30262.76400883753</v>
+        <v>30262.60680693734</v>
       </c>
       <c r="G316" t="n">
-        <v>0.815572556855482</v>
+        <v>0.7989595569568335</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -9701,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="D317" t="n">
-        <v>35344.07478351054</v>
+        <v>36154.01580598178</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -9709,10 +9709,10 @@
         </is>
       </c>
       <c r="F317" t="n">
-        <v>30234.74404864453</v>
+        <v>30244.05870954915</v>
       </c>
       <c r="G317" t="n">
-        <v>0.855440246599701</v>
+        <v>0.8365338686538158</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="D318" t="n">
-        <v>33188.68572820453</v>
+        <v>33812.16608193859</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -9739,10 +9739,10 @@
         </is>
       </c>
       <c r="F318" t="n">
-        <v>30141.93181669744</v>
+        <v>30145.48818637596</v>
       </c>
       <c r="G318" t="n">
-        <v>0.9081990188928184</v>
+        <v>0.8915574386249907</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -9761,7 +9761,7 @@
         <v>0</v>
       </c>
       <c r="D319" t="n">
-        <v>33248.96245052692</v>
+        <v>33880.53923784704</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -9769,10 +9769,10 @@
         </is>
       </c>
       <c r="F319" t="n">
-        <v>30122.93809283681</v>
+        <v>30132.85433645767</v>
       </c>
       <c r="G319" t="n">
-        <v>0.9059812960376881</v>
+        <v>0.8893853230882781</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -9791,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="D320" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -9799,10 +9799,10 @@
         </is>
       </c>
       <c r="F320" t="n">
-        <v>30108.61292440834</v>
+        <v>30123.36914043958</v>
       </c>
       <c r="G320" t="n">
-        <v>0.904249457626119</v>
+        <v>0.8876864977919223</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -9821,7 +9821,7 @@
         <v>0</v>
       </c>
       <c r="D321" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -9829,10 +9829,10 @@
         </is>
       </c>
       <c r="F321" t="n">
-        <v>30150.03501562479</v>
+        <v>30166.53081330115</v>
       </c>
       <c r="G321" t="n">
-        <v>0.8819551100693607</v>
+        <v>0.8638121411866844</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="D322" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -9859,10 +9859,10 @@
         </is>
       </c>
       <c r="F322" t="n">
-        <v>30193.0267009258</v>
+        <v>30209.04532689169</v>
       </c>
       <c r="G322" t="n">
-        <v>0.8673472509079132</v>
+        <v>0.8486715914622859</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="D323" t="n">
-        <v>33519.43748014412</v>
+        <v>34185.45305923072</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -9889,10 +9889,10 @@
         </is>
       </c>
       <c r="F323" t="n">
-        <v>30152.69947137273</v>
+        <v>30161.53058488389</v>
       </c>
       <c r="G323" t="n">
-        <v>0.8995586363653706</v>
+        <v>0.8822913808579672</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="D324" t="n">
-        <v>32258.58031207752</v>
+        <v>32738.50962926309</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -9919,10 +9919,10 @@
         </is>
       </c>
       <c r="F324" t="n">
-        <v>30108.65489657777</v>
+        <v>30110.91598014144</v>
       </c>
       <c r="G324" t="n">
-        <v>0.9333533777772972</v>
+        <v>0.9197399735395103</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -9941,7 +9941,7 @@
         <v>0</v>
       </c>
       <c r="D325" t="n">
-        <v>31075.43742539147</v>
+        <v>31325.71526816589</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -9949,10 +9949,10 @@
         </is>
       </c>
       <c r="F325" t="n">
-        <v>30063.94380728512</v>
+        <v>30065.48364236778</v>
       </c>
       <c r="G325" t="n">
-        <v>0.9674503819766066</v>
+        <v>0.9597700606351743</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -10001,7 +10001,7 @@
         <v>0</v>
       </c>
       <c r="D327" t="n">
-        <v>49394.17380473073</v>
+        <v>49826.89654992914</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -10009,10 +10009,10 @@
         </is>
       </c>
       <c r="F327" t="n">
-        <v>30005.04358784864</v>
+        <v>29991.31289922638</v>
       </c>
       <c r="G327" t="n">
-        <v>0.6074611897845916</v>
+        <v>0.6019101123260511</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>0</v>
       </c>
       <c r="D328" t="n">
-        <v>52930.48676186892</v>
+        <v>53568.38062509898</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -10039,10 +10039,10 @@
         </is>
       </c>
       <c r="F328" t="n">
-        <v>29669.72770329323</v>
+        <v>29599.31784925084</v>
       </c>
       <c r="G328" t="n">
-        <v>0.5605413726266214</v>
+        <v>0.5525520372998235</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="D329" t="n">
-        <v>54046.10749239048</v>
+        <v>54783.2138357853</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -10069,10 +10069,10 @@
         </is>
       </c>
       <c r="F329" t="n">
-        <v>29475.86053632841</v>
+        <v>29388.35548933897</v>
       </c>
       <c r="G329" t="n">
-        <v>0.5453835975232539</v>
+        <v>0.5364481824201049</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="D330" t="n">
-        <v>54718.83567006505</v>
+        <v>55503.74792659446</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="F330" t="n">
-        <v>29370.12712261985</v>
+        <v>29275.69694698113</v>
       </c>
       <c r="G330" t="n">
-        <v>0.5367462001514648</v>
+        <v>0.5274544159738404</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="D331" t="n">
-        <v>44484.60506383009</v>
+        <v>45150.6206429167</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -10129,10 +10129,10 @@
         </is>
       </c>
       <c r="F331" t="n">
-        <v>29855.68993530177</v>
+        <v>29816.2202149288</v>
       </c>
       <c r="G331" t="n">
-        <v>0.6711465661538958</v>
+        <v>0.660372322470088</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="D332" t="n">
-        <v>34205.21207045868</v>
+        <v>34685.14138764425</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -10159,10 +10159,10 @@
         </is>
       </c>
       <c r="F332" t="n">
-        <v>30098.26284842153</v>
+        <v>30090.24041847091</v>
       </c>
       <c r="G332" t="n">
-        <v>0.8799320637574964</v>
+        <v>0.867525378725711</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="D333" t="n">
-        <v>31241.92428230162</v>
+        <v>31492.20212507604</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -10189,10 +10189,10 @@
         </is>
       </c>
       <c r="F333" t="n">
-        <v>30079.01382512164</v>
+        <v>30079.7715724004</v>
       </c>
       <c r="G333" t="n">
-        <v>0.9627772461557764</v>
+        <v>0.9551498321055492</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -10241,7 +10241,7 @@
         <v>0</v>
       </c>
       <c r="D335" t="n">
-        <v>31992.62597083192</v>
+        <v>32425.34871603033</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -10249,10 +10249,10 @@
         </is>
       </c>
       <c r="F335" t="n">
-        <v>30065.841358284</v>
+        <v>30076.73268497075</v>
       </c>
       <c r="G335" t="n">
-        <v>0.9397741024977257</v>
+        <v>0.9275685189501608</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="D336" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -10279,10 +10279,10 @@
         </is>
       </c>
       <c r="F336" t="n">
-        <v>30117.40205936437</v>
+        <v>30134.59034707566</v>
       </c>
       <c r="G336" t="n">
-        <v>0.9045134209822836</v>
+        <v>0.8880171684275123</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -10301,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="D337" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -10309,10 +10309,10 @@
         </is>
       </c>
       <c r="F337" t="n">
-        <v>30160.88623825417</v>
+        <v>30180.15787421223</v>
       </c>
       <c r="G337" t="n">
-        <v>0.8822725322960189</v>
+        <v>0.8642023491538032</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -10331,7 +10331,7 @@
         <v>0</v>
       </c>
       <c r="D338" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -10339,10 +10339,10 @@
         </is>
       </c>
       <c r="F338" t="n">
-        <v>30195.89167931492</v>
+        <v>30213.08391570362</v>
       </c>
       <c r="G338" t="n">
-        <v>0.867429552399391</v>
+        <v>0.8487850487250759</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="D339" t="n">
-        <v>35356.47404439229</v>
+        <v>36166.8144104372</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -10369,10 +10369,10 @@
         </is>
       </c>
       <c r="F339" t="n">
-        <v>30212.43216687523</v>
+        <v>30230.6049558612</v>
       </c>
       <c r="G339" t="n">
-        <v>0.8545091948066319</v>
+        <v>0.8358658468725159</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -10391,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="D340" t="n">
-        <v>35751.41879538076</v>
+        <v>36569.91482581294</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -10399,10 +10399,10 @@
         </is>
       </c>
       <c r="F340" t="n">
-        <v>30225.7143076859</v>
+        <v>30242.59830003131</v>
       </c>
       <c r="G340" t="n">
-        <v>0.8454409734248419</v>
+        <v>0.8269802772054726</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -10421,7 +10421,7 @@
         <v>0</v>
       </c>
       <c r="D341" t="n">
-        <v>36043.0481980255</v>
+        <v>36861.65307556958</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -10429,10 +10429,10 @@
         </is>
       </c>
       <c r="F341" t="n">
-        <v>30236.21417796476</v>
+        <v>30250.83760315969</v>
       </c>
       <c r="G341" t="n">
-        <v>0.8388917056027785</v>
+        <v>0.8206587355467443</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="D342" t="n">
-        <v>36261.87147054533</v>
+        <v>37077.0742231914</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="F342" t="n">
-        <v>30248.20878055153</v>
+        <v>30261.52415054121</v>
       </c>
       <c r="G342" t="n">
-        <v>0.8341601675225571</v>
+        <v>0.8161788594314942</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -10481,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="D343" t="n">
-        <v>35822.57008692643</v>
+        <v>36641.56872710963</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -10489,10 +10489,10 @@
         </is>
       </c>
       <c r="F343" t="n">
-        <v>30239.55204672236</v>
+        <v>30254.32674263316</v>
       </c>
       <c r="G343" t="n">
-        <v>0.8441480321859538</v>
+        <v>0.8256831733366589</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -10511,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="D344" t="n">
-        <v>35434.23950376685</v>
+        <v>36246.889011486</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -10519,10 +10519,10 @@
         </is>
       </c>
       <c r="F344" t="n">
-        <v>30227.41442130748</v>
+        <v>30243.41228278359</v>
       </c>
       <c r="G344" t="n">
-        <v>0.8530566718694256</v>
+        <v>0.8343726346611424</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -10541,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="D345" t="n">
-        <v>35097.74058420179</v>
+        <v>35898.00278020033</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -10549,10 +10549,10 @@
         </is>
       </c>
       <c r="F345" t="n">
-        <v>30213.432855039</v>
+        <v>30230.57760637982</v>
       </c>
       <c r="G345" t="n">
-        <v>0.8608369756040274</v>
+        <v>0.8421242204330543</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="D346" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -10579,10 +10579,10 @@
         </is>
       </c>
       <c r="F346" t="n">
-        <v>30199.16317011665</v>
+        <v>30216.66036665585</v>
       </c>
       <c r="G346" t="n">
-        <v>0.867523531667563</v>
+        <v>0.84888552301311</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="D347" t="n">
-        <v>50920.98531404293</v>
+        <v>51587.00089312953</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -10609,10 +10609,10 @@
         </is>
       </c>
       <c r="F347" t="n">
-        <v>29769.22059994906</v>
+        <v>29716.30096344742</v>
       </c>
       <c r="G347" t="n">
-        <v>0.5846159577697593</v>
+        <v>0.576042422489521</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -10631,7 +10631,7 @@
         <v>0</v>
       </c>
       <c r="D348" t="n">
-        <v>51892.26753430283</v>
+        <v>52372.19685148841</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -10639,10 +10639,10 @@
         </is>
       </c>
       <c r="F348" t="n">
-        <v>29939.18635900931</v>
+        <v>29886.14710497381</v>
       </c>
       <c r="G348" t="n">
-        <v>0.5769488939603252</v>
+        <v>0.5706491020363689</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="D349" t="n">
-        <v>50936.09185855123</v>
+        <v>51186.36970132565</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -10669,10 +10669,10 @@
         </is>
       </c>
       <c r="F349" t="n">
-        <v>30175.23167422129</v>
+        <v>30166.61291257999</v>
       </c>
       <c r="G349" t="n">
-        <v>0.5924135632159895</v>
+        <v>0.5893485529175694</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -10699,10 +10699,10 @@
         </is>
       </c>
       <c r="F350" t="n">
-        <v>30390.27237007022</v>
+        <v>30444.29571125164</v>
       </c>
       <c r="G350" t="n">
-        <v>0.6089250843885269</v>
+        <v>0.6100075415375533</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -10721,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="D351" t="n">
-        <v>42957.7935545179</v>
+        <v>43390.51629971631</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -10729,10 +10729,10 @@
         </is>
       </c>
       <c r="F351" t="n">
-        <v>30022.8346708298</v>
+        <v>30014.16809781831</v>
       </c>
       <c r="G351" t="n">
-        <v>0.6988914510408388</v>
+        <v>0.6917218474769462</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -10751,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="D352" t="n">
-        <v>35243.43129802477</v>
+        <v>35881.32516125483</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -10759,10 +10759,10 @@
         </is>
       </c>
       <c r="F352" t="n">
-        <v>30069.35594588534</v>
+        <v>30071.57146621399</v>
       </c>
       <c r="G352" t="n">
-        <v>0.8531903630952808</v>
+        <v>0.8380841936876319</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="D353" t="n">
-        <v>34351.93991614087</v>
+        <v>35089.04625953569</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -10789,10 +10789,10 @@
         </is>
       </c>
       <c r="F353" t="n">
-        <v>30165.30366042966</v>
+        <v>30181.92311051796</v>
       </c>
       <c r="G353" t="n">
-        <v>0.8781251869346672</v>
+        <v>0.8601522790695916</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -10811,7 +10811,7 @@
         <v>0</v>
       </c>
       <c r="D354" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -10819,10 +10819,10 @@
         </is>
       </c>
       <c r="F354" t="n">
-        <v>30196.32212465729</v>
+        <v>30213.79037027603</v>
       </c>
       <c r="G354" t="n">
-        <v>0.8674419176911543</v>
+        <v>0.8488048953610673</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="D355" t="n">
-        <v>33519.43748014412</v>
+        <v>34185.45305923072</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -10849,10 +10849,10 @@
         </is>
       </c>
       <c r="F355" t="n">
-        <v>30155.19128552731</v>
+        <v>30165.21551459762</v>
       </c>
       <c r="G355" t="n">
-        <v>0.8996329757440088</v>
+        <v>0.8823991731902011</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -10871,7 +10871,7 @@
         <v>0</v>
       </c>
       <c r="D356" t="n">
-        <v>32258.58031207752</v>
+        <v>32738.50962926309</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -10879,10 +10879,10 @@
         </is>
       </c>
       <c r="F356" t="n">
-        <v>30110.30584790937</v>
+        <v>30113.42424822714</v>
       </c>
       <c r="G356" t="n">
-        <v>0.9334045564502466</v>
+        <v>0.9198165887585321</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="D357" t="n">
-        <v>31075.43742539147</v>
+        <v>31325.71526816589</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -10909,10 +10909,10 @@
         </is>
       </c>
       <c r="F357" t="n">
-        <v>30064.7488972954</v>
+        <v>30066.738950135</v>
       </c>
       <c r="G357" t="n">
-        <v>0.9674762895768525</v>
+        <v>0.9598101333919007</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -10961,7 +10961,7 @@
         <v>0</v>
       </c>
       <c r="D359" t="n">
-        <v>31992.62597083192</v>
+        <v>32425.34871603033</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -10969,10 +10969,10 @@
         </is>
       </c>
       <c r="F359" t="n">
-        <v>30065.74937239294</v>
+        <v>30076.30950890352</v>
       </c>
       <c r="G359" t="n">
-        <v>0.9397712272760687</v>
+        <v>0.9275554681709406</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -10991,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="D360" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -10999,10 +10999,10 @@
         </is>
       </c>
       <c r="F360" t="n">
-        <v>30117.25596830432</v>
+        <v>30133.93484136915</v>
       </c>
       <c r="G360" t="n">
-        <v>0.9045090334416771</v>
+        <v>0.8879978517447676</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="D361" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -11029,10 +11029,10 @@
         </is>
       </c>
       <c r="F361" t="n">
-        <v>30160.70585957194</v>
+        <v>30179.3617671154</v>
       </c>
       <c r="G361" t="n">
-        <v>0.8822672558212002</v>
+        <v>0.8641795527977959</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -11051,7 +11051,7 @@
         <v>0</v>
       </c>
       <c r="D362" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -11059,10 +11059,10 @@
         </is>
       </c>
       <c r="F362" t="n">
-        <v>30195.40489499296</v>
+        <v>30211.91748835704</v>
       </c>
       <c r="G362" t="n">
-        <v>0.8674155686723662</v>
+        <v>0.8487522799387125</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="D363" t="n">
-        <v>33519.43748014412</v>
+        <v>34185.45305923072</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -11089,10 +11089,10 @@
         </is>
       </c>
       <c r="F363" t="n">
-        <v>30154.4977412875</v>
+        <v>30163.76109323585</v>
       </c>
       <c r="G363" t="n">
-        <v>0.8996122849361686</v>
+        <v>0.8823566281533036</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="D364" t="n">
-        <v>32258.58031207752</v>
+        <v>32738.50962926309</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -11119,10 +11119,10 @@
         </is>
       </c>
       <c r="F364" t="n">
-        <v>30109.84634943167</v>
+        <v>30112.43427198886</v>
       </c>
       <c r="G364" t="n">
-        <v>0.9333903122251985</v>
+        <v>0.9197863498671015</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="D365" t="n">
-        <v>33605.27148211796</v>
+        <v>34281.55906684759</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -11149,10 +11149,10 @@
         </is>
       </c>
       <c r="F365" t="n">
-        <v>30136.38777810727</v>
+        <v>30152.45445144996</v>
       </c>
       <c r="G365" t="n">
-        <v>0.896775608378687</v>
+        <v>0.8795531846335796</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -11171,7 +11171,7 @@
         <v>0</v>
       </c>
       <c r="D366" t="n">
-        <v>34511.88363905974</v>
+        <v>35276.33447258985</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -11179,10 +11179,10 @@
         </is>
       </c>
       <c r="F366" t="n">
-        <v>30153.27289382039</v>
+        <v>30173.64596953231</v>
       </c>
       <c r="G366" t="n">
-        <v>0.8737069587153342</v>
+        <v>0.8553509433633931</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -11201,7 +11201,7 @@
         <v>0</v>
       </c>
       <c r="D367" t="n">
-        <v>53851.25695645597</v>
+        <v>54661.04711302234</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -11209,10 +11209,10 @@
         </is>
       </c>
       <c r="F367" t="n">
-        <v>29202.10575622831</v>
+        <v>29148.62798310344</v>
       </c>
       <c r="G367" t="n">
-        <v>0.5422734288234177</v>
+        <v>0.5332614269688793</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -11231,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="D368" t="n">
-        <v>57127.94473427413</v>
+        <v>57860.84312252654</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -11239,10 +11239,10 @@
         </is>
       </c>
       <c r="F368" t="n">
-        <v>28873.1542722218</v>
+        <v>28802.14839969295</v>
       </c>
       <c r="G368" t="n">
-        <v>0.505412095718179</v>
+        <v>0.4977830747937998</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -11261,7 +11261,7 @@
         <v>0</v>
       </c>
       <c r="D369" t="n">
-        <v>56827.21772433855</v>
+        <v>57609.43062770835</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -11269,10 +11269,10 @@
         </is>
       </c>
       <c r="F369" t="n">
-        <v>28949.5244101994</v>
+        <v>28863.47975756408</v>
       </c>
       <c r="G369" t="n">
-        <v>0.5094306138764312</v>
+        <v>0.5010200490279041</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -11291,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="D370" t="n">
-        <v>56373.51765206664</v>
+        <v>57182.74654131432</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -11299,10 +11299,10 @@
         </is>
       </c>
       <c r="F370" t="n">
-        <v>29077.98872225244</v>
+        <v>28982.71554877704</v>
       </c>
       <c r="G370" t="n">
-        <v>0.5158093717287561</v>
+        <v>0.5068437125145281</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -11321,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="D371" t="n">
-        <v>45501.38872761069</v>
+        <v>46267.67188127172</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -11329,10 +11329,10 @@
         </is>
       </c>
       <c r="F371" t="n">
-        <v>29747.50183263956</v>
+        <v>29699.14990051265</v>
       </c>
       <c r="G371" t="n">
-        <v>0.653771294997607</v>
+        <v>0.6418985155925753</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="D372" t="n">
-        <v>34205.21207045868</v>
+        <v>34685.14138764425</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -11359,10 +11359,10 @@
         </is>
       </c>
       <c r="F372" t="n">
-        <v>30097.55864000219</v>
+        <v>30089.21324948321</v>
       </c>
       <c r="G372" t="n">
-        <v>0.8799114760056096</v>
+        <v>0.8674957646331454</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="D373" t="n">
-        <v>31241.92428230162</v>
+        <v>31492.20212507604</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -11389,10 +11389,10 @@
         </is>
       </c>
       <c r="F373" t="n">
-        <v>30078.79564667704</v>
+        <v>30079.42393061835</v>
       </c>
       <c r="G373" t="n">
-        <v>0.9627702626408486</v>
+        <v>0.955138793125783</v>
       </c>
       <c r="H373" t="n">
         <v>0</v>
@@ -11441,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="D375" t="n">
-        <v>31992.62597083192</v>
+        <v>32425.34871603033</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -11449,10 +11449,10 @@
         </is>
       </c>
       <c r="F375" t="n">
-        <v>30064.09934113815</v>
+        <v>30073.96299795164</v>
       </c>
       <c r="G375" t="n">
-        <v>0.939719651914412</v>
+        <v>0.9274831016106782</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -11471,7 +11471,7 @@
         <v>0</v>
       </c>
       <c r="D376" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -11479,10 +11479,10 @@
         </is>
       </c>
       <c r="F376" t="n">
-        <v>30114.63549427842</v>
+        <v>30130.30024551837</v>
       </c>
       <c r="G376" t="n">
-        <v>0.9044303329640898</v>
+        <v>0.8878907461402576</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -11501,7 +11501,7 @@
         <v>0</v>
       </c>
       <c r="D377" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -11509,10 +11509,10 @@
         </is>
       </c>
       <c r="F377" t="n">
-        <v>30157.47042861362</v>
+        <v>30174.94770950991</v>
       </c>
       <c r="G377" t="n">
-        <v>0.8821726123202726</v>
+        <v>0.8640531572047752</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="D378" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -11539,10 +11539,10 @@
         </is>
       </c>
       <c r="F378" t="n">
-        <v>30193.80705626431</v>
+        <v>30210.22309794968</v>
       </c>
       <c r="G378" t="n">
-        <v>0.8673696679734263</v>
+        <v>0.8487046789308683</v>
       </c>
       <c r="H378" t="n">
         <v>0</v>
@@ -11561,7 +11561,7 @@
         <v>0</v>
       </c>
       <c r="D379" t="n">
-        <v>33519.43748014412</v>
+        <v>34185.45305923072</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -11569,10 +11569,10 @@
         </is>
       </c>
       <c r="F379" t="n">
-        <v>30153.28954414277</v>
+        <v>30162.44524826484</v>
       </c>
       <c r="G379" t="n">
-        <v>0.8995762402637174</v>
+        <v>0.8823181367818793</v>
       </c>
       <c r="H379" t="n">
         <v>0</v>
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="D380" t="n">
-        <v>32258.58031207752</v>
+        <v>32738.50962926309</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -11599,10 +11599,10 @@
         </is>
       </c>
       <c r="F380" t="n">
-        <v>30109.04585755552</v>
+        <v>30111.53859391827</v>
       </c>
       <c r="G380" t="n">
-        <v>0.9333654973738191</v>
+        <v>0.9197589913196071</v>
       </c>
       <c r="H380" t="n">
         <v>0</v>
@@ -11621,7 +11621,7 @@
         <v>0</v>
       </c>
       <c r="D381" t="n">
-        <v>31075.43742539147</v>
+        <v>31325.71526816589</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -11629,10 +11629,10 @@
         </is>
       </c>
       <c r="F381" t="n">
-        <v>30064.13446433871</v>
+        <v>30065.79525033575</v>
       </c>
       <c r="G381" t="n">
-        <v>0.9674565172741079</v>
+        <v>0.9597800079888195</v>
       </c>
       <c r="H381" t="n">
         <v>0</v>
@@ -11681,7 +11681,7 @@
         <v>0</v>
       </c>
       <c r="D383" t="n">
-        <v>31992.62597083192</v>
+        <v>32425.34871603033</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -11689,10 +11689,10 @@
         </is>
       </c>
       <c r="F383" t="n">
-        <v>30065.841358284</v>
+        <v>30076.73268497075</v>
       </c>
       <c r="G383" t="n">
-        <v>0.9397741024977257</v>
+        <v>0.9275685189501608</v>
       </c>
       <c r="H383" t="n">
         <v>0</v>
@@ -11711,7 +11711,7 @@
         <v>0</v>
       </c>
       <c r="D384" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -11719,10 +11719,10 @@
         </is>
       </c>
       <c r="F384" t="n">
-        <v>30117.40205936437</v>
+        <v>30134.59034707566</v>
       </c>
       <c r="G384" t="n">
-        <v>0.9045134209822836</v>
+        <v>0.8880171684275123</v>
       </c>
       <c r="H384" t="n">
         <v>0</v>
@@ -11741,7 +11741,7 @@
         <v>0</v>
       </c>
       <c r="D385" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -11749,10 +11749,10 @@
         </is>
       </c>
       <c r="F385" t="n">
-        <v>30160.88623825417</v>
+        <v>30180.15787421223</v>
       </c>
       <c r="G385" t="n">
-        <v>0.8822725322960189</v>
+        <v>0.8642023491538032</v>
       </c>
       <c r="H385" t="n">
         <v>0</v>
@@ -11771,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="D386" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -11779,10 +11779,10 @@
         </is>
       </c>
       <c r="F386" t="n">
-        <v>30195.89167931492</v>
+        <v>30213.08391570362</v>
       </c>
       <c r="G386" t="n">
-        <v>0.867429552399391</v>
+        <v>0.8487850487250759</v>
       </c>
       <c r="H386" t="n">
         <v>0</v>
@@ -11801,7 +11801,7 @@
         <v>0</v>
       </c>
       <c r="D387" t="n">
-        <v>50920.98531404293</v>
+        <v>51587.00089312953</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -11809,10 +11809,10 @@
         </is>
       </c>
       <c r="F387" t="n">
-        <v>29759.11111881185</v>
+        <v>29706.43535017114</v>
       </c>
       <c r="G387" t="n">
-        <v>0.5844174250611943</v>
+        <v>0.5758511802559064</v>
       </c>
       <c r="H387" t="n">
         <v>0</v>
@@ -11831,7 +11831,7 @@
         <v>0</v>
       </c>
       <c r="D388" t="n">
-        <v>51892.26753430283</v>
+        <v>52372.19685148841</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -11839,10 +11839,10 @@
         </is>
       </c>
       <c r="F388" t="n">
-        <v>29928.83155937192</v>
+        <v>29876.09892492251</v>
       </c>
       <c r="G388" t="n">
-        <v>0.5767493497868017</v>
+        <v>0.5704572410747257</v>
       </c>
       <c r="H388" t="n">
         <v>0</v>
@@ -11861,7 +11861,7 @@
         <v>0</v>
       </c>
       <c r="D389" t="n">
-        <v>50936.09185855123</v>
+        <v>51186.36970132565</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -11869,10 +11869,10 @@
         </is>
       </c>
       <c r="F389" t="n">
-        <v>30165.17661346817</v>
+        <v>30156.91202725424</v>
       </c>
       <c r="G389" t="n">
-        <v>0.5922161577931109</v>
+        <v>0.5891590320474167</v>
       </c>
       <c r="H389" t="n">
         <v>0</v>
@@ -11899,10 +11899,10 @@
         </is>
       </c>
       <c r="F390" t="n">
-        <v>30402.85873357289</v>
+        <v>30457.67122636214</v>
       </c>
       <c r="G390" t="n">
-        <v>0.6091772753647932</v>
+        <v>0.6102755446198628</v>
       </c>
       <c r="H390" t="n">
         <v>0</v>
@@ -11921,7 +11921,7 @@
         <v>0</v>
       </c>
       <c r="D391" t="n">
-        <v>45227.63337631165</v>
+        <v>45971.64969769322</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -11929,10 +11929,10 @@
         </is>
       </c>
       <c r="F391" t="n">
-        <v>29748.1995689527</v>
+        <v>29718.75579004484</v>
       </c>
       <c r="G391" t="n">
-        <v>0.6577438912497591</v>
+        <v>0.6464583278058016</v>
       </c>
       <c r="H391" t="n">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="D392" t="n">
-        <v>38267.83734666674</v>
+        <v>39081.58378977926</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -11959,10 +11959,10 @@
         </is>
       </c>
       <c r="F392" t="n">
-        <v>30084.4116347977</v>
+        <v>30088.82801042379</v>
       </c>
       <c r="G392" t="n">
-        <v>0.7861539538350253</v>
+        <v>0.7698978672991424</v>
       </c>
       <c r="H392" t="n">
         <v>0</v>
@@ -11981,7 +11981,7 @@
         <v>0</v>
       </c>
       <c r="D393" t="n">
-        <v>37588.44655492352</v>
+        <v>38329.47428753154</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -11989,10 +11989,10 @@
         </is>
       </c>
       <c r="F393" t="n">
-        <v>30247.81718102855</v>
+        <v>30250.02961824801</v>
       </c>
       <c r="G393" t="n">
-        <v>0.8047104882834413</v>
+        <v>0.7892106578693215</v>
       </c>
       <c r="H393" t="n">
         <v>0</v>
@@ -12011,7 +12011,7 @@
         <v>0</v>
       </c>
       <c r="D394" t="n">
-        <v>38060.19957709108</v>
+        <v>38712.65096412196</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -12019,10 +12019,10 @@
         </is>
       </c>
       <c r="F394" t="n">
-        <v>30249.07914523385</v>
+        <v>30238.77293689747</v>
       </c>
       <c r="G394" t="n">
-        <v>0.7947693254725116</v>
+        <v>0.7811082988070774</v>
       </c>
       <c r="H394" t="n">
         <v>0</v>
@@ -12041,7 +12041,7 @@
         <v>0</v>
       </c>
       <c r="D395" t="n">
-        <v>36619.10438735906</v>
+        <v>37421.95969801337</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -12049,10 +12049,10 @@
         </is>
       </c>
       <c r="F395" t="n">
-        <v>30271.60377263133</v>
+        <v>30274.63096671817</v>
       </c>
       <c r="G395" t="n">
-        <v>0.8266615003036805</v>
+        <v>0.8090070966626948</v>
       </c>
       <c r="H395" t="n">
         <v>0</v>
@@ -12071,7 +12071,7 @@
         <v>0</v>
       </c>
       <c r="D396" t="n">
-        <v>34727.07575956952</v>
+        <v>35506.71035882778</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -12079,10 +12079,10 @@
         </is>
       </c>
       <c r="F396" t="n">
-        <v>30223.71437247716</v>
+        <v>30231.9150903499</v>
       </c>
       <c r="G396" t="n">
-        <v>0.8703213187810264</v>
+        <v>0.8514422987888415</v>
       </c>
       <c r="H396" t="n">
         <v>0</v>
@@ -12101,7 +12101,7 @@
         <v>0</v>
       </c>
       <c r="D397" t="n">
-        <v>32475.67843910697</v>
+        <v>32992.15989407467</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -12109,10 +12109,10 @@
         </is>
       </c>
       <c r="F397" t="n">
-        <v>30129.91947864438</v>
+        <v>30131.37100037894</v>
       </c>
       <c r="G397" t="n">
-        <v>0.9277687465448655</v>
+        <v>0.9132888267127511</v>
       </c>
       <c r="H397" t="n">
         <v>0</v>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="D399" t="n">
-        <v>31992.62597083192</v>
+        <v>32425.34871603033</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -12169,10 +12169,10 @@
         </is>
       </c>
       <c r="F399" t="n">
-        <v>30065.94741027727</v>
+        <v>30076.56441682337</v>
       </c>
       <c r="G399" t="n">
-        <v>0.9397774173863931</v>
+        <v>0.9275633295488421</v>
       </c>
       <c r="H399" t="n">
         <v>0</v>
@@ -12191,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="D400" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -12199,10 +12199,10 @@
         </is>
       </c>
       <c r="F400" t="n">
-        <v>30117.57049071497</v>
+        <v>30134.32969613192</v>
       </c>
       <c r="G400" t="n">
-        <v>0.9045184794669707</v>
+        <v>0.8880094874698374</v>
       </c>
       <c r="H400" t="n">
         <v>0</v>
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="D401" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -12229,10 +12229,10 @@
         </is>
       </c>
       <c r="F401" t="n">
-        <v>30161.09420100672</v>
+        <v>30179.84131458159</v>
       </c>
       <c r="G401" t="n">
-        <v>0.8822786156658132</v>
+        <v>0.8641932845366601</v>
       </c>
       <c r="H401" t="n">
         <v>0</v>
@@ -12251,7 +12251,7 @@
         <v>0</v>
       </c>
       <c r="D402" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -12259,10 +12259,10 @@
         </is>
       </c>
       <c r="F402" t="n">
-        <v>30196.32212465729</v>
+        <v>30213.79037027603</v>
       </c>
       <c r="G402" t="n">
-        <v>0.8674419176911543</v>
+        <v>0.8488048953610673</v>
       </c>
       <c r="H402" t="n">
         <v>0</v>
@@ -12281,7 +12281,7 @@
         <v>0</v>
       </c>
       <c r="D403" t="n">
-        <v>33519.43748014412</v>
+        <v>34185.45305923072</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -12289,10 +12289,10 @@
         </is>
       </c>
       <c r="F403" t="n">
-        <v>30155.19128552731</v>
+        <v>30165.21551459762</v>
       </c>
       <c r="G403" t="n">
-        <v>0.8996329757440088</v>
+        <v>0.8823991731902011</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -12311,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="D404" t="n">
-        <v>32258.58031207752</v>
+        <v>32738.50962926309</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
@@ -12319,10 +12319,10 @@
         </is>
       </c>
       <c r="F404" t="n">
-        <v>30110.30584790937</v>
+        <v>30113.42424822714</v>
       </c>
       <c r="G404" t="n">
-        <v>0.9334045564502466</v>
+        <v>0.9198165887585321</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -12341,7 +12341,7 @@
         <v>0</v>
       </c>
       <c r="D405" t="n">
-        <v>31075.43742539147</v>
+        <v>31325.71526816589</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -12349,10 +12349,10 @@
         </is>
       </c>
       <c r="F405" t="n">
-        <v>30064.7488972954</v>
+        <v>30066.738950135</v>
       </c>
       <c r="G405" t="n">
-        <v>0.9674762895768525</v>
+        <v>0.9598101333919007</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -12401,7 +12401,7 @@
         <v>0</v>
       </c>
       <c r="D407" t="n">
-        <v>49394.17380473073</v>
+        <v>49826.89654992914</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -12409,10 +12409,10 @@
         </is>
       </c>
       <c r="F407" t="n">
-        <v>30015.77054349393</v>
+        <v>30004.16344247933</v>
       </c>
       <c r="G407" t="n">
-        <v>0.6076783602486163</v>
+        <v>0.6021680160716733</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -12431,7 +12431,7 @@
         <v>0</v>
       </c>
       <c r="D408" t="n">
-        <v>52930.48676186892</v>
+        <v>53568.38062509898</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -12439,10 +12439,10 @@
         </is>
       </c>
       <c r="F408" t="n">
-        <v>29681.603143992</v>
+        <v>29613.57366830247</v>
       </c>
       <c r="G408" t="n">
-        <v>0.5607657318083573</v>
+        <v>0.5528181610632317</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -12461,7 +12461,7 @@
         <v>0</v>
       </c>
       <c r="D409" t="n">
-        <v>54046.10749239048</v>
+        <v>54783.2138357853</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -12469,10 +12469,10 @@
         </is>
       </c>
       <c r="F409" t="n">
-        <v>29488.06547972269</v>
+        <v>29403.01937406075</v>
       </c>
       <c r="G409" t="n">
-        <v>0.5456094221748443</v>
+        <v>0.536715853549545</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -12491,7 +12491,7 @@
         <v>0</v>
       </c>
       <c r="D410" t="n">
-        <v>54718.83567006505</v>
+        <v>55503.74792659446</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -12499,10 +12499,10 @@
         </is>
       </c>
       <c r="F410" t="n">
-        <v>29375.55655367879</v>
+        <v>29280.82599458129</v>
       </c>
       <c r="G410" t="n">
-        <v>0.5368454243215783</v>
+        <v>0.5275468250055141</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -12521,7 +12521,7 @@
         <v>0</v>
       </c>
       <c r="D411" t="n">
-        <v>44484.60506383009</v>
+        <v>45150.6206429167</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -12529,10 +12529,10 @@
         </is>
       </c>
       <c r="F411" t="n">
-        <v>29859.60767617378</v>
+        <v>29819.97443769441</v>
       </c>
       <c r="G411" t="n">
-        <v>0.6712346357426082</v>
+        <v>0.6604554713329862</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -12551,7 +12551,7 @@
         <v>0</v>
       </c>
       <c r="D412" t="n">
-        <v>34205.21207045868</v>
+        <v>34685.14138764425</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -12559,10 +12559,10 @@
         </is>
       </c>
       <c r="F412" t="n">
-        <v>30099.70475960676</v>
+        <v>30091.71812900242</v>
       </c>
       <c r="G412" t="n">
-        <v>0.8799742184788955</v>
+        <v>0.8675679822865557</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -12581,7 +12581,7 @@
         <v>0</v>
       </c>
       <c r="D413" t="n">
-        <v>31241.92428230162</v>
+        <v>31492.20212507604</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -12589,10 +12589,10 @@
         </is>
       </c>
       <c r="F413" t="n">
-        <v>30079.46053727949</v>
+        <v>30080.2716708685</v>
       </c>
       <c r="G413" t="n">
-        <v>0.9627915446398841</v>
+        <v>0.9551657121785307</v>
       </c>
       <c r="H413" t="n">
         <v>0</v>
@@ -12641,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="D415" t="n">
-        <v>31992.62597083192</v>
+        <v>32425.34871603033</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -12649,10 +12649,10 @@
         </is>
       </c>
       <c r="F415" t="n">
-        <v>30060.30671368221</v>
+        <v>30069.48769204468</v>
       </c>
       <c r="G415" t="n">
-        <v>0.9396011049886488</v>
+        <v>0.9273450828665731</v>
       </c>
       <c r="H415" t="n">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="D416" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -12679,10 +12679,10 @@
         </is>
       </c>
       <c r="F416" t="n">
-        <v>30108.61292440834</v>
+        <v>30123.36914043958</v>
       </c>
       <c r="G416" t="n">
-        <v>0.904249457626119</v>
+        <v>0.8876864977919223</v>
       </c>
       <c r="H416" t="n">
         <v>0</v>
@@ -12701,7 +12701,7 @@
         <v>0</v>
       </c>
       <c r="D417" t="n">
-        <v>35833.69506013777</v>
+        <v>36652.74486078155</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -12709,10 +12709,10 @@
         </is>
       </c>
       <c r="F417" t="n">
-        <v>30199.52204703606</v>
+        <v>30218.39469072297</v>
       </c>
       <c r="G417" t="n">
-        <v>0.8427688519521591</v>
+        <v>0.8244510692310159</v>
       </c>
       <c r="H417" t="n">
         <v>0</v>
@@ -12731,7 +12731,7 @@
         <v>0</v>
       </c>
       <c r="D418" t="n">
-        <v>37152.09085133347</v>
+        <v>37919.54817642979</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -12739,10 +12739,10 @@
         </is>
       </c>
       <c r="F418" t="n">
-        <v>30244.78754524192</v>
+        <v>30249.66212852491</v>
       </c>
       <c r="G418" t="n">
-        <v>0.8140803613521623</v>
+        <v>0.7977326625249095</v>
       </c>
       <c r="H418" t="n">
         <v>0</v>
@@ -12761,7 +12761,7 @@
         <v>0</v>
       </c>
       <c r="D419" t="n">
-        <v>37126.66325924921</v>
+        <v>37896.30314513999</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -12769,10 +12769,10 @@
         </is>
       </c>
       <c r="F419" t="n">
-        <v>30252.97743266873</v>
+        <v>30254.74715227642</v>
       </c>
       <c r="G419" t="n">
-        <v>0.8148585080597548</v>
+        <v>0.7983561625101796</v>
       </c>
       <c r="H419" t="n">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="D420" t="n">
-        <v>37106.15782060949</v>
+        <v>37877.52026173257</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -12799,10 +12799,10 @@
         </is>
       </c>
       <c r="F420" t="n">
-        <v>30259.44861851425</v>
+        <v>30258.78280679015</v>
       </c>
       <c r="G420" t="n">
-        <v>0.8154832080649307</v>
+        <v>0.7988585999744132</v>
       </c>
       <c r="H420" t="n">
         <v>0</v>
@@ -12821,7 +12821,7 @@
         <v>0</v>
       </c>
       <c r="D421" t="n">
-        <v>35344.07478351054</v>
+        <v>36154.01580598178</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -12829,10 +12829,10 @@
         </is>
       </c>
       <c r="F421" t="n">
-        <v>30232.14769103808</v>
+        <v>30240.95124454655</v>
       </c>
       <c r="G421" t="n">
-        <v>0.8553667871125777</v>
+        <v>0.836447917897494</v>
       </c>
       <c r="H421" t="n">
         <v>0</v>
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="D422" t="n">
-        <v>33188.68572820453</v>
+        <v>33812.16608193859</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -12859,10 +12859,10 @@
         </is>
       </c>
       <c r="F422" t="n">
-        <v>30147.71230702043</v>
+        <v>30152.18526833158</v>
       </c>
       <c r="G422" t="n">
-        <v>0.9083731894029233</v>
+        <v>0.891755505851426</v>
       </c>
       <c r="H422" t="n">
         <v>0</v>
@@ -12881,7 +12881,7 @@
         <v>0</v>
       </c>
       <c r="D423" t="n">
-        <v>33248.96245052692</v>
+        <v>33880.53923784704</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -12889,10 +12889,10 @@
         </is>
       </c>
       <c r="F423" t="n">
-        <v>30128.85452479394</v>
+        <v>30139.68272909325</v>
       </c>
       <c r="G423" t="n">
-        <v>0.9061592393935427</v>
+        <v>0.889586866298309</v>
       </c>
       <c r="H423" t="n">
         <v>0</v>
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="D424" t="n">
-        <v>33296.79953964361</v>
+        <v>33934.69340287367</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -12919,10 +12919,10 @@
         </is>
       </c>
       <c r="F424" t="n">
-        <v>30114.63549427842</v>
+        <v>30130.30024551837</v>
       </c>
       <c r="G424" t="n">
-        <v>0.9044303329640898</v>
+        <v>0.8878907461402576</v>
       </c>
       <c r="H424" t="n">
         <v>0</v>
@@ -12941,7 +12941,7 @@
         <v>0</v>
       </c>
       <c r="D425" t="n">
-        <v>34185.45305923072</v>
+        <v>34922.55940262554</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -12949,10 +12949,10 @@
         </is>
       </c>
       <c r="F425" t="n">
-        <v>30157.47042861362</v>
+        <v>30174.94770950991</v>
       </c>
       <c r="G425" t="n">
-        <v>0.8821726123202726</v>
+        <v>0.8640531572047752</v>
       </c>
       <c r="H425" t="n">
         <v>0</v>
@@ -12971,7 +12971,7 @@
         <v>0</v>
       </c>
       <c r="D426" t="n">
-        <v>34810.7711984106</v>
+        <v>35595.68345494001</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -12979,10 +12979,10 @@
         </is>
       </c>
       <c r="F426" t="n">
-        <v>30193.80705626431</v>
+        <v>30210.22309794968</v>
       </c>
       <c r="G426" t="n">
-        <v>0.8673696679734263</v>
+        <v>0.8487046789308683</v>
       </c>
       <c r="H426" t="n">
         <v>0</v>
@@ -13001,7 +13001,7 @@
         <v>0</v>
       </c>
       <c r="D427" t="n">
-        <v>50920.98531404293</v>
+        <v>51587.00089312953</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -13009,10 +13009,10 @@
         </is>
       </c>
       <c r="F427" t="n">
-        <v>29752.67170644361</v>
+        <v>29698.54684002449</v>
       </c>
       <c r="G427" t="n">
-        <v>0.5842909661498331</v>
+        <v>0.5756982636294293</v>
       </c>
       <c r="H427" t="n">
         <v>0</v>
@@ -13031,7 +13031,7 @@
         <v>0</v>
       </c>
       <c r="D428" t="n">
-        <v>51892.26753430283</v>
+        <v>52372.19685148841</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -13039,10 +13039,10 @@
         </is>
       </c>
       <c r="F428" t="n">
-        <v>29922.23595473301</v>
+        <v>29868.06449608112</v>
       </c>
       <c r="G428" t="n">
-        <v>0.5766222479091559</v>
+        <v>0.5703038308814474</v>
       </c>
       <c r="H428" t="n">
         <v>0</v>
@@ -13061,7 +13061,7 @@
         <v>0</v>
       </c>
       <c r="D429" t="n">
-        <v>50936.09185855123</v>
+        <v>51186.36970132565</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -13069,10 +13069,10 @@
         </is>
       </c>
       <c r="F429" t="n">
-        <v>30158.77179828627</v>
+        <v>30149.15508755176</v>
       </c>
       <c r="G429" t="n">
-        <v>0.5920904156140745</v>
+        <v>0.5890074889755457</v>
       </c>
       <c r="H429" t="n">
         <v>0</v>
@@ -13099,10 +13099,10 @@
         </is>
       </c>
       <c r="F430" t="n">
-        <v>30389.5762715623</v>
+        <v>30445.21275066084</v>
       </c>
       <c r="G430" t="n">
-        <v>0.6089111367727399</v>
+        <v>0.6100259161112601</v>
       </c>
       <c r="H430" t="n">
         <v>0</v>
@@ -13129,10 +13129,10 @@
         </is>
       </c>
       <c r="F431" t="n">
-        <v>30316.81621645103</v>
+        <v>30369.68438779927</v>
       </c>
       <c r="G431" t="n">
-        <v>0.7400632782599537</v>
+        <v>0.7413538422797452</v>
       </c>
       <c r="H431" t="n">
         <v>0</v>
@@ -13159,10 +13159,10 @@
         </is>
       </c>
       <c r="F432" t="n">
-        <v>30081.69011635701</v>
+        <v>30088.81273354834</v>
       </c>
       <c r="G432" t="n">
-        <v>0.9416232153633883</v>
+        <v>0.9418461689832004</v>
       </c>
       <c r="H432" t="n">
         <v>0</v>
@@ -13189,10 +13189,10 @@
         </is>
       </c>
       <c r="F433" t="n">
-        <v>30019.12215661224</v>
+        <v>30019.16442670661</v>
       </c>
       <c r="G433" t="n">
-        <v>0.995114953193028</v>
+        <v>0.9951163544199777</v>
       </c>
       <c r="H433" t="n">
         <v>0</v>
